--- a/Rexemple/data/excel_tx_accès.xlsx
+++ b/Rexemple/data/excel_tx_accès.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noack\gitCereq\cereq-dataviz\Rexemple\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97C7A408-7748-47F9-8483-E69F7F9A4288}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91D1AFB0-8BA9-42AE-8BFA-80DC48F63A32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{0111C601-3FAF-471B-A066-519A9B0A12FB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{0111C601-3FAF-471B-A066-519A9B0A12FB}"/>
   </bookViews>
   <sheets>
     <sheet name="infos variables" sheetId="1" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="338">
   <si>
     <t>Présentation des enquêtes</t>
   </si>
@@ -58,12 +58,6 @@
   </si>
   <si>
     <t>F</t>
-  </si>
-  <si>
-    <t>Part d'entreprises qui ont organisé au moins un cours et stages pour au moins un de leurs salariés</t>
-  </si>
-  <si>
-    <t>Part de salariés formés</t>
   </si>
   <si>
     <t>https://www.cereq.fr/lenquete-formation-employeur-annuelle-efe-a</t>
@@ -242,15 +236,6 @@
     <t>Taux accès</t>
   </si>
   <si>
-    <t>Part d'entreprises qui ont organisé au moins une formation pour au moins un de leurs salariés</t>
-  </si>
-  <si>
-    <t>Nombre d'heures de cours et stages par stagiaire</t>
-  </si>
-  <si>
-    <t>Nombre d'heures de cours et stages par salarié</t>
-  </si>
-  <si>
     <t xml:space="preserve">Autres formes de formation : 
 -	Des périodes de formation en situation de travail organisées à l’avance et encadrées
 -	Des formations organisées par rotations sur les postes de travail, échanges, détachements, mises en doublon ou visites d’études
@@ -1059,59 +1044,83 @@
     <t>0 si tx_autres est significatif 1 sinon</t>
   </si>
   <si>
-    <t>Techniques spécifiques à un métier</t>
-  </si>
-  <si>
-    <t>Autres compétences</t>
-  </si>
-  <si>
-    <t>Management</t>
-  </si>
-  <si>
-    <t>Administratif</t>
-  </si>
-  <si>
-    <t>Commercial</t>
-  </si>
-  <si>
-    <t>Travail en équipe</t>
-  </si>
-  <si>
-    <t>Crise sanitaire</t>
-  </si>
-  <si>
-    <t>Charge de travail trop lourde ou manque de temps</t>
-  </si>
-  <si>
-    <t>Recrutement de personnes ayant les qualifications et compétences requises</t>
-  </si>
-  <si>
-    <t>Coûts des cours ou stages trop élevés</t>
-  </si>
-  <si>
-    <t>Effort de formation approprié aux besoins</t>
-  </si>
-  <si>
-    <t>Autres raisons</t>
-  </si>
-  <si>
-    <t>Difficulté d'évaluation des besoins en formation</t>
-  </si>
-  <si>
-    <t>Absence de cours ou stages adaptés aux besoins</t>
-  </si>
-  <si>
-    <t>Qualifications et compétences appropriées aux besoins de l'entreprise</t>
-  </si>
-  <si>
-    <t>Priorité donnée à la formation initiale</t>
+    <t>ns_heurstag</t>
+  </si>
+  <si>
+    <t>ns_heurstag_sal</t>
+  </si>
+  <si>
+    <t>C5i</t>
+  </si>
+  <si>
+    <t>C5m</t>
+  </si>
+  <si>
+    <t>C5c</t>
+  </si>
+  <si>
+    <t>d3i</t>
+  </si>
+  <si>
+    <t>d3h</t>
+  </si>
+  <si>
+    <t>d3b</t>
+  </si>
+  <si>
+    <t>e1a</t>
+  </si>
+  <si>
+    <t>e1b</t>
+  </si>
+  <si>
+    <t>e1i</t>
+  </si>
+  <si>
+    <t>C5g</t>
+  </si>
+  <si>
+    <t>d3e</t>
+  </si>
+  <si>
+    <t>e1h</t>
+  </si>
+  <si>
+    <t>d3a</t>
+  </si>
+  <si>
+    <t>d3c</t>
+  </si>
+  <si>
+    <t>C5e</t>
+  </si>
+  <si>
+    <t>C5d</t>
+  </si>
+  <si>
+    <t>d3d</t>
+  </si>
+  <si>
+    <t>e1e</t>
+  </si>
+  <si>
+    <t>e1c</t>
+  </si>
+  <si>
+    <t>e1f</t>
+  </si>
+  <si>
+    <t>d3j</t>
+  </si>
+  <si>
+    <t>∑</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1226,6 +1235,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria Math"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1313,14 +1346,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1364,9 +1396,6 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1379,6 +1408,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1406,7 +1436,21 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Lien hypertexte" xfId="2" builtinId="8"/>
@@ -1427,6 +1471,2026 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>62706</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2785827" cy="271293"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="ZoneTexte 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AF35D6-C0B7-2214-83A2-2A1B39814061}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8345365" y="2370687"/>
+              <a:ext cx="2785827" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>taux</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+                <a:t> accés </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑎𝑙𝑎𝑟𝑖</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>é</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑓𝑜𝑟𝑚</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>é</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑐𝑜𝑢𝑟𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑜𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑡𝑎𝑔𝑒</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑎𝑙𝑎𝑟𝑖</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>é</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2" name="ZoneTexte 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C9AF35D6-C0B7-2214-83A2-2A1B39814061}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8345365" y="2370687"/>
+              <a:ext cx="2785827" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>taux</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+                <a:t> accés </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑▒〖𝑑𝑒𝑠 𝑠𝑎𝑙𝑎𝑟𝑖é𝑠 𝑓𝑜𝑟𝑚é𝑠 𝑒𝑛 𝑐𝑜𝑢𝑟𝑠 𝑜𝑢 𝑠𝑡𝑎𝑔𝑒〗)/(∑▒〖𝑑𝑒𝑠 𝑠𝑎𝑙𝑎𝑟𝑖é𝑠〗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2865438</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3502241" cy="271293"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="ZoneTexte 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454C4750-5C87-413A-ABD3-D0087EDC40DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8334376" y="2746376"/>
+              <a:ext cx="3502241" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>taux</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+                <a:t> de formation </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑓𝑜𝑟𝑚𝑎𝑡𝑟𝑖𝑐𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑡𝑜𝑢𝑡𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑓𝑜𝑟𝑚𝑒𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="3" name="ZoneTexte 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{454C4750-5C87-413A-ABD3-D0087EDC40DC}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8334376" y="2746376"/>
+              <a:ext cx="3502241" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>taux</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+                <a:t> de formation </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑▒〖𝑑𝑒𝑠 𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠 𝑓𝑜𝑟𝑚𝑎𝑡𝑟𝑖𝑐𝑒𝑠 𝑡𝑜𝑢𝑡𝑒𝑠 𝑓𝑜𝑟𝑚𝑒𝑠〗)/(∑▒〖𝑑𝑒𝑠 𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠〗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4578689" cy="271293"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="ZoneTexte 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EC7843-78A3-452C-B53C-86496B6E5858}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342313" y="3294063"/>
+              <a:ext cx="4578689" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>taux</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+                <a:t> de formation cours ou stage </a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑓𝑜𝑟𝑚𝑎𝑡𝑟𝑖𝑐𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑐𝑜𝑢𝑟𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑜𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑡𝑎𝑔𝑒</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="5" name="ZoneTexte 4">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E3EC7843-78A3-452C-B53C-86496B6E5858}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342313" y="3294063"/>
+              <a:ext cx="4578689" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100"/>
+                <a:t>taux</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0"/>
+                <a:t> de formation cours ou stage </a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑▒〖𝑑𝑒𝑠 𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠 𝑓𝑜𝑟𝑚𝑎𝑡𝑟𝑖𝑐𝑒𝑠 𝑒𝑛 𝑐𝑜𝑢𝑟𝑠 𝑜𝑢 𝑠𝑡𝑎𝑔𝑒〗)/(∑▒〖𝑑𝑒𝑠 𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠〗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>55563</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4280852" cy="271293"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="ZoneTexte 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD0BBD5-0FE8-4B54-9C0E-17544D3C56ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342313" y="3873501"/>
+              <a:ext cx="4280852" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:latin typeface="Cabria"/>
+                </a:rPr>
+                <a:t>d</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>ur</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>é</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>e</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>moyenne</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>de</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>formation</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>par</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>stagiaire</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>h𝑒𝑢𝑟𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑐𝑜𝑢𝑟𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑜𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑡𝑎𝑔𝑒</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑡𝑎𝑔𝑖𝑎𝑖𝑟𝑒𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="6" name="ZoneTexte 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8DD0BBD5-0FE8-4B54-9C0E-17544D3C56ED}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342313" y="3873501"/>
+              <a:ext cx="4280852" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:latin typeface="Cabria"/>
+                </a:rPr>
+                <a:t>d</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cabria"/>
+                </a:rPr>
+                <a:t>urée moyenne de formation par stagiaire</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑▒〖𝑑𝑒𝑠 ℎ𝑒𝑢𝑟𝑒𝑠 𝑑𝑒 𝑐𝑜𝑢𝑟𝑠 𝑜𝑢 𝑠𝑡𝑎𝑔𝑒〗)/(∑▒〖𝑑𝑒𝑠 𝑠𝑡𝑎𝑔𝑖𝑎𝑖𝑟𝑒𝑠〗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>87312</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4270593" cy="271293"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="ZoneTexte 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502B5D21-36A2-4033-AD26-3077827D1C3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342313" y="4429125"/>
+              <a:ext cx="4270593" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:latin typeface="Cabria"/>
+                </a:rPr>
+                <a:t>d</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>ur</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>é</m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>e</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>moyenne</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>de</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>formation</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>par</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cabria"/>
+                    </a:rPr>
+                    <m:t>s</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>𝑎𝑙𝑎𝑟𝑖</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>é=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>h𝑒𝑢𝑟𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑐𝑜𝑢𝑟𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑜𝑢</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑡𝑎𝑔𝑒</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑎𝑙𝑎𝑟𝑖</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>é</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="7" name="ZoneTexte 6">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{502B5D21-36A2-4033-AD26-3077827D1C3B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342313" y="4429125"/>
+              <a:ext cx="4270593" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:latin typeface="Cabria"/>
+                </a:rPr>
+                <a:t>d</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cabria"/>
+                </a:rPr>
+                <a:t>urée moyenne de formation par s</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>𝑎𝑙𝑎𝑟𝑖é</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑▒〖𝑑𝑒𝑠 ℎ𝑒𝑢𝑟𝑒𝑠 𝑑𝑒 𝑐𝑜𝑢𝑟𝑠 𝑜𝑢 𝑠𝑡𝑎𝑔𝑒〗)/(∑▒〖𝑑𝑒𝑠 𝑠𝑎𝑙𝑎𝑟𝑖é𝑠〗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="1100"/>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>230187</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5991897" cy="271293"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="ZoneTexte 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D0388-26FC-4381-9274-3D8FB5E0D38D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342313" y="5683250"/>
+              <a:ext cx="5991897" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>taux</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> de formation e</a:t>
+              </a:r>
+              <a14:m>
+                <m:oMath xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>xclusivement</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>autres</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t> </m:t>
+                  </m:r>
+                  <m:r>
+                    <m:rPr>
+                      <m:sty m:val="p"/>
+                    </m:rPr>
+                    <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>formes</m:t>
+                  </m:r>
+                  <m:r>
+                    <a:rPr lang="fr-FR" sz="1100" i="1">
+                      <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                      <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                    </a:rPr>
+                    <m:t>=</m:t>
+                  </m:r>
+                  <m:f>
+                    <m:fPr>
+                      <m:ctrlPr>
+                        <a:rPr lang="fr-FR" sz="1100" i="1">
+                          <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                          <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                        </a:rPr>
+                      </m:ctrlPr>
+                    </m:fPr>
+                    <m:num>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑓𝑜𝑟𝑚𝑎𝑡𝑟𝑖𝑐𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑠𝑒𝑢𝑙𝑒𝑚𝑒𝑛𝑡</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑎𝑢𝑡𝑟𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑓𝑜𝑟𝑚𝑒𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:num>
+                    <m:den>
+                      <m:nary>
+                        <m:naryPr>
+                          <m:chr m:val="∑"/>
+                          <m:subHide m:val="on"/>
+                          <m:supHide m:val="on"/>
+                          <m:ctrlPr>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                          </m:ctrlPr>
+                        </m:naryPr>
+                        <m:sub/>
+                        <m:sup/>
+                        <m:e>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑑𝑒𝑠</m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t> </m:t>
+                          </m:r>
+                          <m:r>
+                            <a:rPr lang="fr-FR" sz="1100" b="0" i="1">
+                              <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                            </a:rPr>
+                            <m:t>𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠</m:t>
+                          </m:r>
+                        </m:e>
+                      </m:nary>
+                    </m:den>
+                  </m:f>
+                </m:oMath>
+              </a14:m>
+              <a:endParaRPr lang="fr-FR" sz="1100">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9" name="ZoneTexte 8">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B35D0388-26FC-4381-9274-3D8FB5E0D38D}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8342313" y="5683250"/>
+              <a:ext cx="5991897" cy="271293"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" lIns="0" tIns="0" rIns="0" bIns="0" rtlCol="0" anchor="t">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>taux</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" baseline="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> de formation e</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>xclusivement autres formes</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>=(</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="fr-FR" sz="1100" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                  <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>∑▒〖𝑑𝑒𝑠 𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠 𝑓𝑜𝑟𝑚𝑎𝑡𝑟𝑖𝑐𝑒𝑠 𝑠𝑒𝑢𝑙𝑒𝑚𝑒𝑛𝑡 𝑒𝑛 𝑎𝑢𝑡𝑟𝑒𝑠 𝑓𝑜𝑟𝑚𝑒𝑠〗)/(∑▒〖𝑑𝑒𝑠 𝑒𝑛𝑡𝑟𝑒𝑝𝑟𝑖𝑠𝑒𝑠〗)</a:t>
+              </a:r>
+              <a:endParaRPr lang="fr-FR" sz="1100">
+                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                <a:ea typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+              </a:endParaRPr>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -1848,356 +3912,349 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFE635F-3A54-4B2A-8BAB-B9D01C454DFC}">
   <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="82" style="14" customWidth="1"/>
-    <col min="2" max="2" width="43.140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="88.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="11.42578125" style="14"/>
+    <col min="1" max="1" width="82" style="13" customWidth="1"/>
+    <col min="2" max="2" width="43.140625" style="15" customWidth="1"/>
+    <col min="3" max="3" width="90.7109375" style="13" customWidth="1"/>
+    <col min="4" max="16384" width="11.42578125" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A2" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="19"/>
+      <c r="A2" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="18"/>
     </row>
     <row r="3" spans="1:3" ht="72" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="20"/>
+        <v>6</v>
+      </c>
+      <c r="B3" s="19"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="B4" s="18"/>
+    </row>
+    <row r="5" spans="1:3" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A6" s="14" t="s">
-        <v>10</v>
+      <c r="A6" s="13" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A8" s="1"/>
-      <c r="B8" s="19"/>
+      <c r="B8" s="18"/>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="19"/>
-    </row>
-    <row r="10" spans="1:3" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" spans="1:3" s="17" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="B10" s="21" t="s">
+    </row>
+    <row r="11" spans="1:3" ht="87.75" x14ac:dyDescent="3.5">
+      <c r="A11" s="39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C11" s="36"/>
+    </row>
+    <row r="12" spans="1:3" ht="87.75" x14ac:dyDescent="3.5">
+      <c r="A12" s="39" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" s="37"/>
+    </row>
+    <row r="13" spans="1:3" ht="87.75" x14ac:dyDescent="3.5">
+      <c r="A13" s="39" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="37"/>
+    </row>
+    <row r="14" spans="1:3" ht="87.75" x14ac:dyDescent="3.5">
+      <c r="A14" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="37"/>
+    </row>
+    <row r="15" spans="1:3" ht="87.75" x14ac:dyDescent="3.5">
+      <c r="A15" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="37"/>
+    </row>
+    <row r="16" spans="1:3" ht="201" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="38" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.15">
-      <c r="A11" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="19" t="s">
+    <row r="17" spans="1:3" ht="168" x14ac:dyDescent="0.15">
+      <c r="A17" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A18" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A14" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="22" t="s">
+    </row>
+    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A19" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A20" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="14" t="s">
+    </row>
+    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A22" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="156" x14ac:dyDescent="0.15">
+      <c r="A23" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="24" x14ac:dyDescent="0.15">
-      <c r="A15" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C15" s="14" t="s">
+    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A24" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A25" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="156" x14ac:dyDescent="0.15">
+      <c r="A29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B29" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="144" x14ac:dyDescent="0.15">
-      <c r="A16" s="14" t="s">
-        <v>302</v>
-      </c>
-      <c r="B16" s="23" t="s">
+    <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A30" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A31" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B31" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.15">
+      <c r="A32" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="36" x14ac:dyDescent="0.15">
+      <c r="A33" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B33" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="16" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="168" x14ac:dyDescent="0.15">
-      <c r="A17" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A18" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A21" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A22" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="156" x14ac:dyDescent="0.15">
-      <c r="A23" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>50</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A24" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>52</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A26" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26" s="25" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A27" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A28" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="156" x14ac:dyDescent="0.15">
-      <c r="A29" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29" s="24" t="s">
+    </row>
+    <row r="34" spans="1:2" ht="36" x14ac:dyDescent="0.15">
+      <c r="A34" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A35" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B35" s="19" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A36" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="B36" s="23" t="s">
         <v>53</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A30" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="C30" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A31" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="25" t="s">
-        <v>296</v>
-      </c>
-      <c r="C31" s="14" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="36" x14ac:dyDescent="0.15">
-      <c r="A32" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="36" x14ac:dyDescent="0.15">
-      <c r="A33" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33" s="25" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="36" x14ac:dyDescent="0.15">
-      <c r="A34" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34" s="25" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A35" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A36" s="14" t="s">
-        <v>304</v>
-      </c>
-      <c r="B36" s="25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>299</v>
-      </c>
-      <c r="B37" s="16" t="s">
-        <v>315</v>
+        <v>294</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A38" s="14" t="s">
-        <v>300</v>
-      </c>
-      <c r="B38" s="16" t="s">
-        <v>316</v>
+      <c r="A38" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="B38" s="15" t="s">
+        <v>311</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="24" x14ac:dyDescent="0.15">
-      <c r="A39" s="14" t="s">
-        <v>301</v>
-      </c>
-      <c r="B39" s="16" t="s">
-        <v>317</v>
+      <c r="A39" s="13" t="s">
+        <v>296</v>
+      </c>
+      <c r="B39" s="15" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>303</v>
-      </c>
-      <c r="B40" s="16" t="s">
-        <v>318</v>
+        <v>298</v>
+      </c>
+      <c r="B40" s="15" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2208,6 +4265,7 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -2215,8 +4273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB446A1-1EE8-446A-93F1-E31CC29CCF4F}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87:B88"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection sqref="A1:E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2228,1087 +4286,1087 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B2" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D2" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E2" s="34" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+    <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="33"/>
+      <c r="B3" s="27"/>
+      <c r="C3" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="D3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="E3" s="32"/>
+    </row>
+    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="33"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E2" s="35" t="s">
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="33" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="9" t="s">
+      <c r="B5" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="C5" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E3" s="33"/>
-    </row>
-    <row r="4" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="E5" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="33"/>
-    </row>
-    <row r="5" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    </row>
+    <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="33"/>
+      <c r="B6" s="27"/>
+      <c r="C6" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="D6" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E6" s="32"/>
+    </row>
+    <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="33"/>
+      <c r="B7" s="27"/>
+      <c r="C7" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E7" s="32"/>
+    </row>
+    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="33"/>
+      <c r="B8" s="27"/>
+      <c r="C8" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="9" t="s">
+      <c r="D8" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="E8" s="32"/>
+    </row>
+    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A9" s="33"/>
+      <c r="B9" s="27"/>
+      <c r="C9" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E6" s="33"/>
-    </row>
-    <row r="7" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="E9" s="32"/>
+    </row>
+    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>90</v>
       </c>
-      <c r="E7" s="33"/>
-    </row>
-    <row r="8" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="9" t="s">
+      <c r="B10" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="C10" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E8" s="33"/>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="9" t="s">
+      <c r="D10" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="E10" s="32"/>
+    </row>
+    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
+      <c r="B11" s="27"/>
+      <c r="C11" s="8" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="33"/>
-    </row>
-    <row r="10" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
+      <c r="D11" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="E11" s="32"/>
+    </row>
+    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="33"/>
+      <c r="B12" s="27"/>
+      <c r="C12" s="8" t="s">
         <v>96</v>
       </c>
-      <c r="C10" s="9" t="s">
+      <c r="D12" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="E12" s="32"/>
+    </row>
+    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
+      <c r="B13" s="27"/>
+      <c r="C13" s="8" t="s">
         <v>98</v>
       </c>
-      <c r="E10" s="33"/>
-    </row>
-    <row r="11" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="9" t="s">
+      <c r="D13" s="9" t="s">
         <v>99</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E13" s="32"/>
+    </row>
+    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A14" s="33"/>
+      <c r="B14" s="27"/>
+      <c r="C14" s="8" t="s">
         <v>100</v>
       </c>
-      <c r="E11" s="33"/>
-    </row>
-    <row r="12" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="9" t="s">
+      <c r="D14" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="E14" s="32"/>
+    </row>
+    <row r="15" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
+      <c r="B15" s="27"/>
+      <c r="C15" s="8" t="s">
         <v>102</v>
       </c>
-      <c r="E12" s="33"/>
-    </row>
-    <row r="13" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="9" t="s">
+      <c r="D15" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="E15" s="32"/>
+    </row>
+    <row r="16" spans="1:5" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="33"/>
+      <c r="B16" s="27"/>
+      <c r="C16" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E13" s="33"/>
-    </row>
-    <row r="14" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="9" t="s">
+      <c r="D16" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="E16" s="32"/>
+    </row>
+    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="33"/>
+      <c r="B17" s="27"/>
+      <c r="C17" s="8" t="s">
         <v>106</v>
       </c>
-      <c r="E14" s="33"/>
-    </row>
-    <row r="15" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="9" t="s">
+      <c r="D17" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="E17" s="32"/>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="33"/>
+      <c r="B18" s="27"/>
+      <c r="C18" s="8" t="s">
         <v>108</v>
       </c>
-      <c r="E15" s="33"/>
-    </row>
-    <row r="16" spans="1:5" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="9" t="s">
+      <c r="D18" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="E18" s="32"/>
+    </row>
+    <row r="19" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="33"/>
+      <c r="B19" s="27"/>
+      <c r="C19" s="8" t="s">
         <v>110</v>
       </c>
-      <c r="E16" s="33"/>
-    </row>
-    <row r="17" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>111</v>
       </c>
-      <c r="D17" s="10" t="s">
+      <c r="E19" s="32"/>
+    </row>
+    <row r="20" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="33"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="E17" s="33"/>
-    </row>
-    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="9" t="s">
+      <c r="D20" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="E20" s="32"/>
+    </row>
+    <row r="21" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="33"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="E18" s="33"/>
-    </row>
-    <row r="19" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="9" t="s">
+      <c r="D21" s="9" t="s">
         <v>115</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="E21" s="32"/>
+    </row>
+    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="33"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="8" t="s">
         <v>116</v>
       </c>
-      <c r="E19" s="33"/>
-    </row>
-    <row r="20" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="D20" s="10" t="s">
+      <c r="E22" s="32"/>
+    </row>
+    <row r="23" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A23" s="33"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="E20" s="33"/>
-    </row>
-    <row r="21" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="E23" s="32"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="33"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="33"/>
-    </row>
-    <row r="22" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="10" t="s">
+      <c r="E24" s="32"/>
+    </row>
+    <row r="25" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="33"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="8" t="s">
         <v>122</v>
       </c>
-      <c r="E22" s="33"/>
-    </row>
-    <row r="23" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="9" t="s">
+      <c r="D25" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="E25" s="32"/>
+    </row>
+    <row r="26" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A26" s="33"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E23" s="33"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="9" t="s">
+      <c r="D26" s="9" t="s">
         <v>125</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="E26" s="32"/>
+    </row>
+    <row r="27" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="33"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="E24" s="33"/>
-    </row>
-    <row r="25" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="9" t="s">
+      <c r="D27" s="9" t="s">
         <v>127</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="E27" s="32"/>
+    </row>
+    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" s="33"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="E25" s="33"/>
-    </row>
-    <row r="26" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="9" t="s">
+      <c r="D28" s="9" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="E28" s="32"/>
+    </row>
+    <row r="29" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="33"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="33"/>
-    </row>
-    <row r="27" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="9" t="s">
+      <c r="D29" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="E29" s="32"/>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="33"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="E27" s="33"/>
-    </row>
-    <row r="28" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="9" t="s">
+      <c r="D30" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="E30" s="32"/>
+    </row>
+    <row r="31" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="33"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="E28" s="33"/>
-    </row>
-    <row r="29" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="9" t="s">
+      <c r="D31" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="E31" s="32"/>
+    </row>
+    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A32" s="33"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="E29" s="33"/>
-    </row>
-    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>137</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="E32" s="32"/>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="33"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="E30" s="33"/>
-    </row>
-    <row r="31" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="9" t="s">
+      <c r="D33" s="9" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="E33" s="32"/>
+    </row>
+    <row r="34" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A34" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="E31" s="33"/>
-    </row>
-    <row r="32" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="9" t="s">
+      <c r="B34" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="C34" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="E32" s="33"/>
-    </row>
-    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="9" t="s">
+      <c r="D34" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="E34" s="32"/>
+    </row>
+    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A35" s="26" t="s">
         <v>144</v>
       </c>
-      <c r="E33" s="33"/>
-    </row>
-    <row r="34" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A34" s="11" t="s">
+      <c r="B35" s="27" t="s">
         <v>145</v>
       </c>
-      <c r="B34" s="12" t="s">
+      <c r="C35" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C34" s="9" t="s">
+      <c r="D35" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="E35" s="32"/>
+    </row>
+    <row r="36" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="26"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="E34" s="33"/>
-    </row>
-    <row r="35" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
+      <c r="D36" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="B35" s="28" t="s">
+      <c r="E36" s="32"/>
+    </row>
+    <row r="37" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A37" s="26"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="8" t="s">
         <v>150</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>151</v>
       </c>
-      <c r="D35" s="10" t="s">
+      <c r="E37" s="32"/>
+    </row>
+    <row r="38" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A38" s="26"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="8" t="s">
         <v>152</v>
       </c>
-      <c r="E35" s="33"/>
-    </row>
-    <row r="36" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="9" t="s">
+      <c r="D38" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="E38" s="32"/>
+    </row>
+    <row r="39" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A39" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>154</v>
       </c>
-      <c r="E36" s="33"/>
-    </row>
-    <row r="37" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="9" t="s">
+      <c r="C39" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D39" s="9" t="s">
         <v>156</v>
       </c>
-      <c r="E37" s="33"/>
-    </row>
-    <row r="38" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="9" t="s">
+      <c r="E39" s="32" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="26"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="8" t="s">
         <v>157</v>
       </c>
-      <c r="D38" s="10" t="s">
+      <c r="D40" s="9" t="s">
         <v>158</v>
       </c>
-      <c r="E38" s="33"/>
-    </row>
-    <row r="39" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="B39" s="28" t="s">
+      <c r="E40" s="32"/>
+    </row>
+    <row r="41" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A41" s="26"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>160</v>
       </c>
-      <c r="D39" s="10" t="s">
+      <c r="E41" s="32"/>
+    </row>
+    <row r="42" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A42" s="26" t="s">
         <v>161</v>
       </c>
-      <c r="E39" s="33" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="9" t="s">
+      <c r="B42" s="27" t="s">
         <v>162</v>
       </c>
-      <c r="D40" s="10" t="s">
+      <c r="C42" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="E40" s="33"/>
-    </row>
-    <row r="41" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="E42" s="32" t="s">
         <v>165</v>
       </c>
-      <c r="E41" s="33"/>
-    </row>
-    <row r="42" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A42" s="27" t="s">
+    </row>
+    <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A43" s="26"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="D43" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="E43" s="32"/>
+    </row>
+    <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A44" s="26"/>
+      <c r="B44" s="27"/>
+      <c r="C44" s="8" t="s">
         <v>168</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D44" s="9" t="s">
         <v>169</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E44" s="32"/>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="26" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="28"/>
-      <c r="C43" s="9" t="s">
+      <c r="B45" s="27" t="s">
         <v>171</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="C45" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="33"/>
-    </row>
-    <row r="44" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="28"/>
-      <c r="C44" s="9" t="s">
+      <c r="D45" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="E45" s="32"/>
+    </row>
+    <row r="46" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A46" s="26"/>
+      <c r="B46" s="27"/>
+      <c r="C46" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="E44" s="33"/>
-    </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="D46" s="9" t="s">
         <v>175</v>
       </c>
-      <c r="B45" s="28" t="s">
+      <c r="E46" s="32"/>
+    </row>
+    <row r="47" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="26"/>
+      <c r="B47" s="27"/>
+      <c r="C47" s="8" t="s">
         <v>176</v>
       </c>
-      <c r="C45" s="9" t="s">
+      <c r="D47" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="E47" s="32"/>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="26"/>
+      <c r="B48" s="27"/>
+      <c r="C48" s="8" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="33"/>
-    </row>
-    <row r="46" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="28"/>
-      <c r="C46" s="9" t="s">
+      <c r="D48" s="9" t="s">
         <v>179</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="E48" s="32"/>
+    </row>
+    <row r="49" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A49" s="26"/>
+      <c r="B49" s="27"/>
+      <c r="C49" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="E46" s="33"/>
-    </row>
-    <row r="47" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="28"/>
-      <c r="C47" s="9" t="s">
+      <c r="D49" s="9" t="s">
         <v>181</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="E49" s="32"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="26" t="s">
         <v>182</v>
       </c>
-      <c r="E47" s="33"/>
-    </row>
-    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="27"/>
-      <c r="B48" s="28"/>
-      <c r="C48" s="9" t="s">
+      <c r="B50" s="27" t="s">
         <v>183</v>
       </c>
-      <c r="D48" s="10" t="s">
+      <c r="C50" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="E48" s="33"/>
-    </row>
-    <row r="49" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="28"/>
-      <c r="C49" s="9" t="s">
+      <c r="D50" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="E50" s="32"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="26"/>
+      <c r="B51" s="27"/>
+      <c r="C51" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="E49" s="33"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="27" t="s">
+      <c r="D51" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="E51" s="32"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="26" t="s">
         <v>188</v>
       </c>
-      <c r="C50" s="9" t="s">
+      <c r="B52" s="27" t="s">
         <v>189</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="C52" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="E50" s="33"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="28"/>
-      <c r="C51" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D51" s="10" t="s">
+      <c r="E52" s="32"/>
+    </row>
+    <row r="53" spans="1:5" ht="123.75" x14ac:dyDescent="0.25">
+      <c r="A53" s="26"/>
+      <c r="B53" s="27"/>
+      <c r="C53" s="8" t="s">
         <v>192</v>
       </c>
-      <c r="E51" s="33"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="27" t="s">
+      <c r="D53" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="E53" s="32"/>
+    </row>
+    <row r="54" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A54" s="26"/>
+      <c r="B54" s="27"/>
+      <c r="C54" s="8" t="s">
         <v>194</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="D54" s="9" t="s">
         <v>195</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="E54" s="32"/>
+    </row>
+    <row r="55" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A55" s="26"/>
+      <c r="B55" s="27"/>
+      <c r="C55" s="8" t="s">
         <v>196</v>
       </c>
-      <c r="E52" s="33"/>
-    </row>
-    <row r="53" spans="1:5" ht="123.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="27"/>
-      <c r="B53" s="28"/>
-      <c r="C53" s="9" t="s">
+      <c r="D55" s="9" t="s">
         <v>197</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="E55" s="32"/>
+    </row>
+    <row r="56" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A56" s="26"/>
+      <c r="B56" s="27"/>
+      <c r="C56" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="E53" s="33"/>
-    </row>
-    <row r="54" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="27"/>
-      <c r="B54" s="28"/>
-      <c r="C54" s="9" t="s">
+      <c r="D56" s="9" t="s">
         <v>199</v>
       </c>
-      <c r="D54" s="10" t="s">
+      <c r="E56" s="32"/>
+    </row>
+    <row r="57" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A57" s="26"/>
+      <c r="B57" s="27"/>
+      <c r="C57" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="E54" s="33"/>
-    </row>
-    <row r="55" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="28"/>
-      <c r="C55" s="9" t="s">
+      <c r="D57" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="D55" s="10" t="s">
+      <c r="E57" s="32"/>
+    </row>
+    <row r="58" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A58" s="26" t="s">
         <v>202</v>
       </c>
-      <c r="E55" s="33"/>
-    </row>
-    <row r="56" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="9" t="s">
+      <c r="B58" s="27" t="s">
         <v>203</v>
       </c>
-      <c r="D56" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="E56" s="33"/>
-    </row>
-    <row r="57" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="28"/>
-      <c r="C57" s="9" t="s">
+      <c r="D58" s="9" t="s">
         <v>205</v>
       </c>
-      <c r="D57" s="10" t="s">
+      <c r="E58" s="32"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="26"/>
+      <c r="B59" s="27"/>
+      <c r="C59" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="E57" s="33"/>
-    </row>
-    <row r="58" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="27" t="s">
+      <c r="D59" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="B58" s="28" t="s">
+      <c r="E59" s="32"/>
+    </row>
+    <row r="60" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A60" s="26"/>
+      <c r="B60" s="27"/>
+      <c r="C60" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="D60" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="E60" s="32"/>
+    </row>
+    <row r="61" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A61" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="E58" s="33"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="28"/>
-      <c r="C59" s="9" t="s">
+      <c r="B61" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="C61" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="E59" s="33"/>
-    </row>
-    <row r="60" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A60" s="27"/>
-      <c r="B60" s="28"/>
-      <c r="C60" s="9" t="s">
+      <c r="D61" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="E61" s="32"/>
+    </row>
+    <row r="62" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A62" s="26" t="s">
         <v>214</v>
       </c>
-      <c r="E60" s="33"/>
-    </row>
-    <row r="61" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A61" s="13" t="s">
+      <c r="B62" s="27" t="s">
         <v>215</v>
       </c>
-      <c r="B61" s="12" t="s">
+      <c r="C62" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="C61" s="9" t="s">
+      <c r="D62" s="9" t="s">
         <v>217</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="E62" s="32"/>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="26"/>
+      <c r="B63" s="27"/>
+      <c r="C63" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="E61" s="33"/>
-    </row>
-    <row r="62" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="27" t="s">
+      <c r="D63" s="9" t="s">
         <v>219</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="E63" s="32"/>
+    </row>
+    <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A64" s="26"/>
+      <c r="B64" s="27"/>
+      <c r="C64" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C62" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>221</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="E64" s="32"/>
+    </row>
+    <row r="65" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A65" s="26"/>
+      <c r="B65" s="27"/>
+      <c r="C65" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="E62" s="33"/>
-    </row>
-    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="28"/>
-      <c r="C63" s="9" t="s">
+      <c r="D65" s="9" t="s">
         <v>223</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="E65" s="32"/>
+    </row>
+    <row r="66" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A66" s="26"/>
+      <c r="B66" s="27"/>
+      <c r="C66" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="E63" s="33"/>
-    </row>
-    <row r="64" spans="1:5" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="28"/>
-      <c r="C64" s="9" t="s">
+      <c r="D66" s="9" t="s">
         <v>225</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="E66" s="32"/>
+    </row>
+    <row r="67" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A67" s="26"/>
+      <c r="B67" s="27"/>
+      <c r="C67" s="8" t="s">
         <v>226</v>
       </c>
-      <c r="E64" s="33"/>
-    </row>
-    <row r="65" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="28"/>
-      <c r="C65" s="9" t="s">
+      <c r="D67" s="9" t="s">
         <v>227</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="E67" s="32"/>
+    </row>
+    <row r="68" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="26"/>
+      <c r="B68" s="27"/>
+      <c r="C68" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="E65" s="33"/>
-    </row>
-    <row r="66" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="27"/>
-      <c r="B66" s="28"/>
-      <c r="C66" s="9" t="s">
+      <c r="D68" s="9" t="s">
         <v>229</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="E68" s="32"/>
+    </row>
+    <row r="69" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A69" s="26" t="s">
         <v>230</v>
       </c>
-      <c r="E66" s="33"/>
-    </row>
-    <row r="67" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A67" s="27"/>
-      <c r="B67" s="28"/>
-      <c r="C67" s="9" t="s">
+      <c r="B69" s="27" t="s">
         <v>231</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="C69" s="8" t="s">
         <v>232</v>
       </c>
-      <c r="E67" s="33"/>
-    </row>
-    <row r="68" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="27"/>
-      <c r="B68" s="28"/>
-      <c r="C68" s="9" t="s">
+      <c r="D69" s="9" t="s">
         <v>233</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="E69" s="32"/>
+    </row>
+    <row r="70" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A70" s="26"/>
+      <c r="B70" s="27"/>
+      <c r="C70" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="E68" s="33"/>
-    </row>
-    <row r="69" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="27" t="s">
+      <c r="D70" s="9" t="s">
         <v>235</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="E70" s="32"/>
+    </row>
+    <row r="71" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A71" s="26"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="8" t="s">
         <v>236</v>
       </c>
-      <c r="C69" s="9" t="s">
+      <c r="D71" s="9" t="s">
         <v>237</v>
       </c>
-      <c r="D69" s="10" t="s">
+      <c r="E71" s="32"/>
+    </row>
+    <row r="72" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A72" s="26"/>
+      <c r="B72" s="27"/>
+      <c r="C72" s="8" t="s">
         <v>238</v>
       </c>
-      <c r="E69" s="33"/>
-    </row>
-    <row r="70" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="27"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>239</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="E72" s="32"/>
+    </row>
+    <row r="73" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A73" s="26"/>
+      <c r="B73" s="27"/>
+      <c r="C73" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="E70" s="33"/>
-    </row>
-    <row r="71" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A71" s="27"/>
-      <c r="B71" s="28"/>
-      <c r="C71" s="9" t="s">
+      <c r="D73" s="9" t="s">
         <v>241</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="E73" s="32"/>
+    </row>
+    <row r="74" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A74" s="26"/>
+      <c r="B74" s="27"/>
+      <c r="C74" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E71" s="33"/>
-    </row>
-    <row r="72" spans="1:5" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A72" s="27"/>
-      <c r="B72" s="28"/>
-      <c r="C72" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>243</v>
       </c>
-      <c r="D72" s="10" t="s">
+      <c r="E74" s="32"/>
+    </row>
+    <row r="75" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A75" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="E72" s="33"/>
-    </row>
-    <row r="73" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A73" s="27"/>
-      <c r="B73" s="28"/>
-      <c r="C73" s="9" t="s">
+      <c r="B75" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="10" t="s">
+      <c r="C75" s="8" t="s">
         <v>246</v>
       </c>
-      <c r="E73" s="33"/>
-    </row>
-    <row r="74" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A74" s="27"/>
-      <c r="B74" s="28"/>
-      <c r="C74" s="9" t="s">
+      <c r="D75" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="D74" s="10" t="s">
+      <c r="E75" s="29" t="s">
         <v>248</v>
       </c>
-      <c r="E74" s="33"/>
-    </row>
-    <row r="75" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A75" s="13" t="s">
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B75" s="12" t="s">
+      <c r="B76" s="11" t="s">
         <v>250</v>
       </c>
-      <c r="C75" s="9" t="s">
+      <c r="C76" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="D75" s="10" t="s">
+      <c r="D76" s="9" t="s">
         <v>252</v>
       </c>
-      <c r="E75" s="30" t="s">
+      <c r="E76" s="30"/>
+    </row>
+    <row r="77" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A77" s="26" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="13" t="s">
+      <c r="B77" s="27" t="s">
         <v>254</v>
       </c>
-      <c r="B76" s="12" t="s">
+      <c r="C77" s="8" t="s">
         <v>255</v>
       </c>
-      <c r="C76" s="9" t="s">
+      <c r="D77" s="9" t="s">
         <v>256</v>
       </c>
-      <c r="D76" s="10" t="s">
+      <c r="E77" s="30"/>
+    </row>
+    <row r="78" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A78" s="26"/>
+      <c r="B78" s="27"/>
+      <c r="C78" s="8" t="s">
         <v>257</v>
       </c>
-      <c r="E76" s="31"/>
-    </row>
-    <row r="77" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="27" t="s">
+      <c r="D78" s="9" t="s">
         <v>258</v>
       </c>
-      <c r="B77" s="28" t="s">
+      <c r="E78" s="30"/>
+    </row>
+    <row r="79" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A79" s="26"/>
+      <c r="B79" s="27"/>
+      <c r="C79" s="8" t="s">
         <v>259</v>
       </c>
-      <c r="C77" s="9" t="s">
+      <c r="D79" s="9" t="s">
         <v>260</v>
       </c>
-      <c r="D77" s="10" t="s">
+      <c r="E79" s="31"/>
+    </row>
+    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="26" t="s">
         <v>261</v>
       </c>
-      <c r="E77" s="31"/>
-    </row>
-    <row r="78" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="27"/>
-      <c r="B78" s="28"/>
-      <c r="C78" s="9" t="s">
+      <c r="B80" s="27" t="s">
         <v>262</v>
       </c>
-      <c r="D78" s="10" t="s">
+      <c r="C80" s="8" t="s">
         <v>263</v>
       </c>
-      <c r="E78" s="31"/>
-    </row>
-    <row r="79" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="27"/>
-      <c r="B79" s="28"/>
-      <c r="C79" s="9" t="s">
+      <c r="D80" s="9" t="s">
         <v>264</v>
       </c>
-      <c r="D79" s="10" t="s">
+      <c r="E80" s="29" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="26"/>
+      <c r="B81" s="27"/>
+      <c r="C81" s="8" t="s">
         <v>265</v>
       </c>
-      <c r="E79" s="32"/>
-    </row>
-    <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A80" s="27" t="s">
+      <c r="D81" s="9" t="s">
         <v>266</v>
       </c>
-      <c r="B80" s="28" t="s">
+      <c r="E81" s="30"/>
+    </row>
+    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A82" s="26"/>
+      <c r="B82" s="27"/>
+      <c r="C82" s="8" t="s">
         <v>267</v>
       </c>
-      <c r="C80" s="9" t="s">
+      <c r="D82" s="9" t="s">
         <v>268</v>
       </c>
-      <c r="D80" s="10" t="s">
+      <c r="E82" s="30"/>
+    </row>
+    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A83" s="26"/>
+      <c r="B83" s="27"/>
+      <c r="C83" s="8" t="s">
         <v>269</v>
       </c>
-      <c r="E80" s="30" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="27"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="9" t="s">
+      <c r="D83" s="9" t="s">
         <v>270</v>
       </c>
-      <c r="D81" s="10" t="s">
+      <c r="E83" s="30"/>
+    </row>
+    <row r="84" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A84" s="26" t="s">
         <v>271</v>
       </c>
-      <c r="E81" s="31"/>
-    </row>
-    <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A82" s="27"/>
-      <c r="B82" s="28"/>
-      <c r="C82" s="9" t="s">
+      <c r="B84" s="27" t="s">
         <v>272</v>
       </c>
-      <c r="D82" s="10" t="s">
+      <c r="C84" s="8" t="s">
         <v>273</v>
       </c>
-      <c r="E82" s="31"/>
-    </row>
-    <row r="83" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="27"/>
-      <c r="B83" s="28"/>
-      <c r="C83" s="9" t="s">
+      <c r="D84" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="D83" s="10" t="s">
+      <c r="E84" s="30"/>
+    </row>
+    <row r="85" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A85" s="26"/>
+      <c r="B85" s="27"/>
+      <c r="C85" s="8" t="s">
         <v>275</v>
       </c>
-      <c r="E83" s="31"/>
-    </row>
-    <row r="84" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="27" t="s">
+      <c r="D85" s="9" t="s">
         <v>276</v>
       </c>
-      <c r="B84" s="28" t="s">
+      <c r="E85" s="30"/>
+    </row>
+    <row r="86" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A86" s="26"/>
+      <c r="B86" s="27"/>
+      <c r="C86" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="C84" s="9" t="s">
+      <c r="D86" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="D84" s="10" t="s">
+      <c r="E86" s="31"/>
+    </row>
+    <row r="87" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
+      <c r="A87" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="E84" s="31"/>
-    </row>
-    <row r="85" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A85" s="27"/>
-      <c r="B85" s="28"/>
-      <c r="C85" s="9" t="s">
+      <c r="B87" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="D85" s="10" t="s">
+      <c r="C87" s="8" t="s">
         <v>281</v>
       </c>
-      <c r="E85" s="31"/>
-    </row>
-    <row r="86" spans="1:5" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="27"/>
-      <c r="B86" s="28"/>
-      <c r="C86" s="9" t="s">
+      <c r="D87" s="9" t="s">
         <v>282</v>
       </c>
-      <c r="D86" s="10" t="s">
+      <c r="E87" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="E86" s="32"/>
-    </row>
-    <row r="87" spans="1:5" ht="67.5" x14ac:dyDescent="0.25">
-      <c r="A87" s="27" t="s">
+    </row>
+    <row r="88" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+      <c r="A88" s="26"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="8" t="s">
         <v>284</v>
       </c>
-      <c r="B87" s="28" t="s">
+      <c r="D88" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="C87" s="9" t="s">
+      <c r="E88" s="28"/>
+    </row>
+    <row r="89" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
+      <c r="A89" s="12" t="s">
         <v>286</v>
       </c>
-      <c r="D87" s="10" t="s">
+      <c r="B89" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="E87" s="29" t="s">
+      <c r="C89" s="8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A88" s="27"/>
-      <c r="B88" s="28"/>
-      <c r="C88" s="9" t="s">
+      <c r="D89" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="D88" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="E88" s="29"/>
-    </row>
-    <row r="89" spans="1:5" ht="56.25" x14ac:dyDescent="0.25">
-      <c r="A89" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="B89" s="8" t="s">
-        <v>292</v>
-      </c>
-      <c r="C89" s="9" t="s">
-        <v>293</v>
-      </c>
-      <c r="D89" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="E89" s="29"/>
+      <c r="E89" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="39">
@@ -3359,10 +5417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5132866F-4EEC-46BA-BB90-444C50967781}">
-  <dimension ref="A1:AD38"/>
+  <dimension ref="A1:AF37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="O8" sqref="O8"/>
+    <sheetView topLeftCell="M9" workbookViewId="0">
+      <selection activeCell="V42" sqref="V42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3376,109 +5434,119 @@
     <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="25" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="26" max="28" width="12" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="37" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="15" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="22" max="24" width="12" bestFit="1" customWidth="1"/>
+    <col min="25" max="27" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="12" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="37" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>295</v>
+      </c>
+      <c r="E1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F1" t="s">
+        <v>296</v>
+      </c>
+      <c r="G1" t="s">
+        <v>297</v>
+      </c>
+      <c r="H1" t="s">
         <v>298</v>
       </c>
-      <c r="B1" t="s">
+      <c r="I1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" t="s">
+        <v>314</v>
+      </c>
+      <c r="K1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" t="s">
+        <v>315</v>
+      </c>
+      <c r="M1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
+        <v>22</v>
+      </c>
+      <c r="W1" t="s">
+        <v>23</v>
+      </c>
+      <c r="X1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>25</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AE1" t="s">
         <v>299</v>
       </c>
-      <c r="C1" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="AF1" t="s">
         <v>300</v>
       </c>
-      <c r="E1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" t="s">
-        <v>301</v>
-      </c>
-      <c r="G1" t="s">
-        <v>302</v>
-      </c>
-      <c r="H1" t="s">
-        <v>303</v>
-      </c>
-      <c r="I1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" t="s">
-        <v>17</v>
-      </c>
-      <c r="N1" t="s">
-        <v>18</v>
-      </c>
-      <c r="O1" t="s">
-        <v>19</v>
-      </c>
-      <c r="P1" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>21</v>
-      </c>
-      <c r="R1" t="s">
-        <v>22</v>
-      </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
-        <v>24</v>
-      </c>
-      <c r="U1" t="s">
-        <v>25</v>
-      </c>
-      <c r="V1" t="s">
-        <v>26</v>
-      </c>
-      <c r="W1" t="s">
-        <v>27</v>
-      </c>
-      <c r="X1" t="s">
-        <v>28</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>304</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>39.647741999941147</v>
       </c>
@@ -3507,70 +5575,76 @@
         <v>28.284574600325335</v>
       </c>
       <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
         <v>14.661036626664176</v>
       </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>17</v>
-      </c>
-      <c r="N2">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N2" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O2" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P2">
         <v>51.189307067150395</v>
       </c>
-      <c r="O2">
+      <c r="Q2">
         <v>20.832844679132702</v>
       </c>
-      <c r="P2">
+      <c r="R2">
         <v>11.186782908658843</v>
       </c>
-      <c r="Q2" t="s">
-        <v>325</v>
-      </c>
-      <c r="R2" t="s">
-        <v>326</v>
-      </c>
-      <c r="S2" t="s">
-        <v>327</v>
-      </c>
-      <c r="T2">
+      <c r="S2" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="T2" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="U2" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="V2">
         <v>53.348379965252647</v>
       </c>
-      <c r="U2">
+      <c r="W2">
         <v>40.788458417173032</v>
       </c>
-      <c r="V2">
+      <c r="X2">
         <v>34.523966316211045</v>
       </c>
-      <c r="W2" t="s">
-        <v>333</v>
-      </c>
-      <c r="X2" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z2">
+      <c r="Y2" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z2" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA2" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB2">
         <v>60.488506078979277</v>
       </c>
-      <c r="AA2">
+      <c r="AC2">
         <v>32.986336116109591</v>
       </c>
-      <c r="AB2">
+      <c r="AD2">
         <v>29.40886178912654</v>
       </c>
-      <c r="AC2" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD2" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE2" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF2" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>14.286113602211412</v>
       </c>
@@ -3599,70 +5673,76 @@
         <v>30.955639992262302</v>
       </c>
       <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
         <v>13.135202063897076</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="N3" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P3">
+        <v>47.473424978124058</v>
+      </c>
+      <c r="Q3">
+        <v>26.971612966236975</v>
+      </c>
+      <c r="R3">
+        <v>11.274131158107899</v>
+      </c>
+      <c r="S3" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L3" t="s">
+      <c r="T3" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M3" t="s">
-        <v>321</v>
-      </c>
-      <c r="N3">
-        <v>47.473424978124058</v>
-      </c>
-      <c r="O3">
-        <v>26.971612966236975</v>
-      </c>
-      <c r="P3">
-        <v>11.274131158107899</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>325</v>
-      </c>
-      <c r="R3" t="s">
+      <c r="U3" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="S3" t="s">
-        <v>328</v>
-      </c>
-      <c r="T3">
+      <c r="V3">
         <v>47.710134841477128</v>
       </c>
-      <c r="U3">
+      <c r="W3">
         <v>47.20221764306811</v>
       </c>
-      <c r="V3">
+      <c r="X3">
         <v>37.258284636947792</v>
       </c>
-      <c r="W3" t="s">
-        <v>333</v>
-      </c>
-      <c r="X3" t="s">
+      <c r="Y3" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z3" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA3" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="Y3" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z3">
+      <c r="AB3">
         <v>61.24143477349925</v>
       </c>
-      <c r="AA3">
+      <c r="AC3">
         <v>32.658414436944788</v>
       </c>
-      <c r="AB3">
+      <c r="AD3">
         <v>28.321061748499098</v>
       </c>
-      <c r="AC3" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD3" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE3" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF3" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>52.590874566163116</v>
       </c>
@@ -3691,70 +5771,76 @@
         <v>20.134089685132071</v>
       </c>
       <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
         <v>12.066898853907263</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N4" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P4">
+        <v>69.485734802539241</v>
+      </c>
+      <c r="Q4">
+        <v>27.032207093446718</v>
+      </c>
+      <c r="R4">
+        <v>15.771132802379444</v>
+      </c>
+      <c r="S4" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="T4" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="L4" t="s">
-        <v>319</v>
-      </c>
-      <c r="M4" t="s">
+      <c r="U4" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="V4">
+        <v>49.176922068770622</v>
+      </c>
+      <c r="W4">
+        <v>41.085553636655206</v>
+      </c>
+      <c r="X4">
+        <v>33.516545634799336</v>
+      </c>
+      <c r="Y4" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N4">
-        <v>69.485734802539241</v>
-      </c>
-      <c r="O4">
-        <v>27.032207093446718</v>
-      </c>
-      <c r="P4">
-        <v>15.771132802379444</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>325</v>
-      </c>
-      <c r="R4" t="s">
-        <v>326</v>
-      </c>
-      <c r="S4" t="s">
+      <c r="Z4" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="T4">
-        <v>49.176922068770622</v>
-      </c>
-      <c r="U4">
-        <v>41.085553636655206</v>
-      </c>
-      <c r="V4">
-        <v>33.516545634799336</v>
-      </c>
-      <c r="W4" t="s">
-        <v>333</v>
-      </c>
-      <c r="X4" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z4">
+      <c r="AA4" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB4">
         <v>67.252646583210506</v>
       </c>
-      <c r="AA4">
+      <c r="AC4">
         <v>36.185657028813132</v>
       </c>
-      <c r="AB4">
+      <c r="AD4">
         <v>33.684331031273125</v>
       </c>
-      <c r="AC4" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD4" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE4" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF4" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>27.306824298269426</v>
       </c>
@@ -3783,70 +5869,76 @@
         <v>54.984550590773502</v>
       </c>
       <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
         <v>26.411763934316156</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N5" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O5" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P5">
+        <v>60.663196090515711</v>
+      </c>
+      <c r="Q5">
+        <v>21.392077689144291</v>
+      </c>
+      <c r="R5">
+        <v>12.938600259674452</v>
+      </c>
+      <c r="S5" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L5" t="s">
+      <c r="T5" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M5" t="s">
-        <v>321</v>
-      </c>
-      <c r="N5">
-        <v>60.663196090515711</v>
-      </c>
-      <c r="O5">
-        <v>21.392077689144291</v>
-      </c>
-      <c r="P5">
-        <v>12.938600259674452</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>325</v>
-      </c>
-      <c r="R5" t="s">
-        <v>326</v>
-      </c>
-      <c r="S5" t="s">
-        <v>329</v>
-      </c>
-      <c r="T5">
+      <c r="U5" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V5">
         <v>43.968471582975496</v>
       </c>
-      <c r="U5">
+      <c r="W5">
         <v>43.649211780079192</v>
       </c>
-      <c r="V5">
+      <c r="X5">
         <v>28.877622869232066</v>
       </c>
-      <c r="W5" t="s">
-        <v>333</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="Y5" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z5" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA5" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="Y5" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z5">
+      <c r="AB5">
         <v>58.358034600159016</v>
       </c>
-      <c r="AA5">
+      <c r="AC5">
         <v>30.745327066066984</v>
       </c>
-      <c r="AB5">
+      <c r="AD5">
         <v>30.056473556478132</v>
       </c>
-      <c r="AC5" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD5" s="36" t="s">
+      <c r="AE5" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF5" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>38.569528542375814</v>
       </c>
@@ -3875,70 +5967,76 @@
         <v>29.136032021994861</v>
       </c>
       <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
         <v>14.902905324714537</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N6" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O6" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P6">
+        <v>47.845557811985998</v>
+      </c>
+      <c r="Q6">
+        <v>18.166806035613256</v>
+      </c>
+      <c r="R6">
+        <v>11.510266828811663</v>
+      </c>
+      <c r="S6" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L6" t="s">
+      <c r="T6" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M6" t="s">
+      <c r="U6" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="V6">
+        <v>53.65346805373138</v>
+      </c>
+      <c r="W6">
+        <v>39.225646431714161</v>
+      </c>
+      <c r="X6">
+        <v>36.943588151412662</v>
+      </c>
+      <c r="Y6" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N6">
-        <v>47.845557811985998</v>
-      </c>
-      <c r="O6">
-        <v>18.166806035613256</v>
-      </c>
-      <c r="P6">
-        <v>11.510266828811663</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>325</v>
-      </c>
-      <c r="R6" t="s">
-        <v>326</v>
-      </c>
-      <c r="S6" t="s">
-        <v>327</v>
-      </c>
-      <c r="T6">
-        <v>53.65346805373138</v>
-      </c>
-      <c r="U6">
-        <v>39.225646431714161</v>
-      </c>
-      <c r="V6">
-        <v>36.943588151412662</v>
-      </c>
-      <c r="W6" t="s">
-        <v>333</v>
-      </c>
-      <c r="X6" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z6">
+      <c r="Z6" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA6" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB6">
         <v>61.26543325350837</v>
       </c>
-      <c r="AA6">
+      <c r="AC6">
         <v>33.578536833857513</v>
       </c>
-      <c r="AB6">
+      <c r="AD6">
         <v>30.70870667599868</v>
       </c>
-      <c r="AC6" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD6" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE6" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF6" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>39.5277371176808</v>
       </c>
@@ -3967,70 +6065,76 @@
         <v>26.518495669430045</v>
       </c>
       <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
         <v>12.192634200038137</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N7" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O7" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P7">
+        <v>59.940684792831824</v>
+      </c>
+      <c r="Q7">
+        <v>24.030017460892438</v>
+      </c>
+      <c r="R7">
+        <v>14.294124466340266</v>
+      </c>
+      <c r="S7" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L7" t="s">
+      <c r="T7" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M7" t="s">
+      <c r="U7" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="N7">
-        <v>59.940684792831824</v>
-      </c>
-      <c r="O7">
-        <v>24.030017460892438</v>
-      </c>
-      <c r="P7">
-        <v>14.294124466340266</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>325</v>
-      </c>
-      <c r="R7" t="s">
-        <v>326</v>
-      </c>
-      <c r="S7" t="s">
-        <v>327</v>
-      </c>
-      <c r="T7">
+      <c r="V7">
         <v>69.648213309155992</v>
       </c>
-      <c r="U7">
+      <c r="W7">
         <v>45.923959787671535</v>
       </c>
-      <c r="V7">
+      <c r="X7">
         <v>33.912199539603677</v>
       </c>
-      <c r="W7" t="s">
-        <v>333</v>
-      </c>
-      <c r="X7" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z7">
+      <c r="Y7" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z7" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA7" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB7">
         <v>50.50728079958904</v>
       </c>
-      <c r="AA7">
+      <c r="AC7">
         <v>33.247135174760139</v>
       </c>
-      <c r="AB7">
+      <c r="AD7">
         <v>31.4062739937999</v>
       </c>
-      <c r="AC7" s="36" t="s">
-        <v>306</v>
-      </c>
-      <c r="AD7" s="36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE7" s="25" t="s">
+        <v>301</v>
+      </c>
+      <c r="AF7" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>14.888714122513624</v>
       </c>
@@ -4059,70 +6163,76 @@
         <v>86.885690455228485</v>
       </c>
       <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
         <v>44.957903361540694</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N8" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O8" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P8">
+        <v>46.13014194776747</v>
+      </c>
+      <c r="Q8">
+        <v>17.997790403009574</v>
+      </c>
+      <c r="R8">
+        <v>9.1433752374263868</v>
+      </c>
+      <c r="S8" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L8" t="s">
+      <c r="T8" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M8" t="s">
+      <c r="U8" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="N8">
-        <v>46.13014194776747</v>
-      </c>
-      <c r="O8">
-        <v>17.997790403009574</v>
-      </c>
-      <c r="P8">
-        <v>9.1433752374263868</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>325</v>
-      </c>
-      <c r="R8" t="s">
-        <v>326</v>
-      </c>
-      <c r="S8" t="s">
-        <v>327</v>
-      </c>
-      <c r="T8">
+      <c r="V8">
         <v>48.674143518598136</v>
       </c>
-      <c r="U8">
+      <c r="W8">
         <v>39.627461117795725</v>
       </c>
-      <c r="V8">
+      <c r="X8">
         <v>33.893530907851513</v>
       </c>
-      <c r="W8" t="s">
-        <v>333</v>
-      </c>
-      <c r="X8" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y8" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z8">
+      <c r="Y8" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z8" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA8" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB8">
         <v>60.430681635131769</v>
       </c>
-      <c r="AA8">
+      <c r="AC8">
         <v>32.558204582478155</v>
       </c>
-      <c r="AB8">
+      <c r="AD8">
         <v>28.409160393486587</v>
       </c>
-      <c r="AC8" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD8" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE8" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF8" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>10.482063953178509</v>
       </c>
@@ -4151,70 +6261,76 @@
         <v>41.186872965390052</v>
       </c>
       <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
         <v>16.369573762876449</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="N9" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="O9" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P9">
+        <v>47.529611644951132</v>
+      </c>
+      <c r="Q9">
+        <v>24.881015822962031</v>
+      </c>
+      <c r="R9">
+        <v>11.637431057590156</v>
+      </c>
+      <c r="S9" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="T9" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L9" t="s">
-        <v>320</v>
-      </c>
-      <c r="M9" t="s">
+      <c r="U9" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V9">
+        <v>47.921097720457347</v>
+      </c>
+      <c r="W9">
+        <v>46.146297605059203</v>
+      </c>
+      <c r="X9">
+        <v>41.175822222260074</v>
+      </c>
+      <c r="Y9" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N9">
-        <v>47.529611644951132</v>
-      </c>
-      <c r="O9">
-        <v>24.881015822962031</v>
-      </c>
-      <c r="P9">
-        <v>11.637431057590156</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>326</v>
-      </c>
-      <c r="R9" t="s">
-        <v>330</v>
-      </c>
-      <c r="S9" t="s">
-        <v>328</v>
-      </c>
-      <c r="T9">
-        <v>47.921097720457347</v>
-      </c>
-      <c r="U9">
-        <v>46.146297605059203</v>
-      </c>
-      <c r="V9">
-        <v>41.175822222260074</v>
-      </c>
-      <c r="W9" t="s">
-        <v>333</v>
-      </c>
-      <c r="X9" t="s">
+      <c r="Z9" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA9" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="Y9" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z9">
+      <c r="AB9">
         <v>60.764837788438328</v>
       </c>
-      <c r="AA9">
+      <c r="AC9">
         <v>31.993828387829993</v>
       </c>
-      <c r="AB9">
+      <c r="AD9">
         <v>28.490302936601207</v>
       </c>
-      <c r="AC9" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD9" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE9" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF9" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9.2627550890334209</v>
       </c>
@@ -4243,70 +6359,76 @@
         <v>41.460614371478982</v>
       </c>
       <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
         <v>15.195250201271424</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N10" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O10" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P10">
+        <v>69.723678420072886</v>
+      </c>
+      <c r="Q10">
+        <v>16.780644676616113</v>
+      </c>
+      <c r="R10">
+        <v>13.288770192471222</v>
+      </c>
+      <c r="S10" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="T10" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="L10" t="s">
-        <v>319</v>
-      </c>
-      <c r="M10" t="s">
+      <c r="U10" s="25" t="s">
+        <v>329</v>
+      </c>
+      <c r="V10">
+        <v>39.726172172148857</v>
+      </c>
+      <c r="W10">
+        <v>33.638840796004843</v>
+      </c>
+      <c r="X10">
+        <v>29.875870159822483</v>
+      </c>
+      <c r="Y10" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N10">
-        <v>69.723678420072886</v>
-      </c>
-      <c r="O10">
-        <v>16.780644676616113</v>
-      </c>
-      <c r="P10">
-        <v>13.288770192471222</v>
-      </c>
-      <c r="Q10" t="s">
+      <c r="Z10" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="R10" t="s">
-        <v>326</v>
-      </c>
-      <c r="S10" t="s">
-        <v>331</v>
-      </c>
-      <c r="T10">
-        <v>39.726172172148857</v>
-      </c>
-      <c r="U10">
-        <v>33.638840796004843</v>
-      </c>
-      <c r="V10">
-        <v>29.875870159822483</v>
-      </c>
-      <c r="W10" t="s">
-        <v>333</v>
-      </c>
-      <c r="X10" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y10" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z10">
+      <c r="AA10" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB10">
         <v>66.844520020903261</v>
       </c>
-      <c r="AA10">
+      <c r="AC10">
         <v>32.961710203759381</v>
       </c>
-      <c r="AB10">
+      <c r="AD10">
         <v>30.988262168746527</v>
       </c>
-      <c r="AC10" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD10" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE10" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF10" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>12.409823595868446</v>
       </c>
@@ -4335,70 +6457,76 @@
         <v>212.63120650993145</v>
       </c>
       <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
         <v>115.48555855763664</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N11" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O11" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P11">
+        <v>57.694396195986428</v>
+      </c>
+      <c r="Q11">
+        <v>17.027880568547989</v>
+      </c>
+      <c r="R11">
+        <v>12.452879416741224</v>
+      </c>
+      <c r="S11" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="T11" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L11" t="s">
-        <v>320</v>
-      </c>
-      <c r="M11" t="s">
+      <c r="U11" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V11">
+        <v>44.531876613076228</v>
+      </c>
+      <c r="W11">
+        <v>38.409781468072637</v>
+      </c>
+      <c r="X11">
+        <v>24.871451092124321</v>
+      </c>
+      <c r="Y11" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N11">
-        <v>57.694396195986428</v>
-      </c>
-      <c r="O11">
-        <v>17.027880568547989</v>
-      </c>
-      <c r="P11">
-        <v>12.452879416741224</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>326</v>
-      </c>
-      <c r="R11" t="s">
-        <v>330</v>
-      </c>
-      <c r="S11" t="s">
-        <v>329</v>
-      </c>
-      <c r="T11">
-        <v>44.531876613076228</v>
-      </c>
-      <c r="U11">
-        <v>38.409781468072637</v>
-      </c>
-      <c r="V11">
-        <v>24.871451092124321</v>
-      </c>
-      <c r="W11" t="s">
-        <v>333</v>
-      </c>
-      <c r="X11" t="s">
+      <c r="Z11" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA11" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="Y11" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z11">
+      <c r="AB11">
         <v>57.832062446427088</v>
       </c>
-      <c r="AA11">
+      <c r="AC11">
         <v>30.149788797646369</v>
       </c>
-      <c r="AB11">
+      <c r="AD11">
         <v>29.218008897367259</v>
       </c>
-      <c r="AC11" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD11" s="36" t="s">
+      <c r="AE11" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF11" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>15.921472031489978</v>
       </c>
@@ -4427,70 +6555,76 @@
         <v>78.473894342066743</v>
       </c>
       <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
         <v>41.744241026246414</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N12" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O12" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="P12">
+        <v>43.767793396178348</v>
+      </c>
+      <c r="Q12">
+        <v>15.629274077571617</v>
+      </c>
+      <c r="R12">
+        <v>9.7073610691581802</v>
+      </c>
+      <c r="S12" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L12" t="s">
+      <c r="T12" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M12" t="s">
+      <c r="U12" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="V12">
+        <v>50.248322160394665</v>
+      </c>
+      <c r="W12">
+        <v>38.340978244272243</v>
+      </c>
+      <c r="X12">
+        <v>36.564903838859941</v>
+      </c>
+      <c r="Y12" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N12">
-        <v>43.767793396178348</v>
-      </c>
-      <c r="O12">
-        <v>15.629274077571617</v>
-      </c>
-      <c r="P12">
-        <v>9.7073610691581802</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>325</v>
-      </c>
-      <c r="R12" t="s">
-        <v>326</v>
-      </c>
-      <c r="S12" t="s">
-        <v>327</v>
-      </c>
-      <c r="T12">
-        <v>50.248322160394665</v>
-      </c>
-      <c r="U12">
-        <v>38.340978244272243</v>
-      </c>
-      <c r="V12">
-        <v>36.564903838859941</v>
-      </c>
-      <c r="W12" t="s">
-        <v>333</v>
-      </c>
-      <c r="X12" t="s">
-        <v>327</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z12">
+      <c r="Z12" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA12" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB12">
         <v>61.413142511027772</v>
       </c>
-      <c r="AA12">
+      <c r="AC12">
         <v>33.394098373535527</v>
       </c>
-      <c r="AB12">
+      <c r="AD12">
         <v>29.820839563887969</v>
       </c>
-      <c r="AC12" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD12" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE12" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF12" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>20.337085277078927</v>
       </c>
@@ -4519,70 +6653,76 @@
         <v>24.792028028230167</v>
       </c>
       <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
         <v>13.721874245672662</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N13" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O13" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P13">
+        <v>54.23905393774772</v>
+      </c>
+      <c r="Q13">
+        <v>22.295415712631648</v>
+      </c>
+      <c r="R13">
+        <v>11.246618943844714</v>
+      </c>
+      <c r="S13" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L13" t="s">
+      <c r="T13" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M13" t="s">
+      <c r="U13" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V13">
+        <v>66.141590850306486</v>
+      </c>
+      <c r="W13">
+        <v>42.232937687985206</v>
+      </c>
+      <c r="X13">
+        <v>30.180779644881543</v>
+      </c>
+      <c r="Y13" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z13" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA13" s="25" t="s">
         <v>323</v>
       </c>
-      <c r="N13">
-        <v>54.23905393774772</v>
-      </c>
-      <c r="O13">
-        <v>22.295415712631648</v>
-      </c>
-      <c r="P13">
-        <v>11.246618943844714</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>325</v>
-      </c>
-      <c r="R13" t="s">
-        <v>326</v>
-      </c>
-      <c r="S13" t="s">
-        <v>328</v>
-      </c>
-      <c r="T13">
-        <v>66.141590850306486</v>
-      </c>
-      <c r="U13">
-        <v>42.232937687985206</v>
-      </c>
-      <c r="V13">
-        <v>30.180779644881543</v>
-      </c>
-      <c r="W13" t="s">
-        <v>333</v>
-      </c>
-      <c r="X13" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y13" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z13">
+      <c r="AB13">
         <v>50.497264903406794</v>
       </c>
-      <c r="AA13">
+      <c r="AC13">
         <v>32.029602656099591</v>
       </c>
-      <c r="AB13">
+      <c r="AD13">
         <v>30.905515308022725</v>
       </c>
-      <c r="AC13" s="36" t="s">
-        <v>309</v>
-      </c>
-      <c r="AD13" s="36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE13" s="25" t="s">
+        <v>304</v>
+      </c>
+      <c r="AF13" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>25.139268421673002</v>
       </c>
@@ -4611,70 +6751,76 @@
         <v>31.660237622680963</v>
       </c>
       <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
         <v>11.950865502190222</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N14" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O14" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P14">
+        <v>59.076189129642401</v>
+      </c>
+      <c r="Q14">
+        <v>23.564155446426888</v>
+      </c>
+      <c r="R14">
+        <v>17.579844396611904</v>
+      </c>
+      <c r="S14" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L14" t="s">
+      <c r="T14" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M14" t="s">
+      <c r="U14" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="V14">
+        <v>58.673403654464536</v>
+      </c>
+      <c r="W14">
+        <v>43.609066246670807</v>
+      </c>
+      <c r="X14">
+        <v>37.787315135084434</v>
+      </c>
+      <c r="Y14" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N14">
-        <v>59.076189129642401</v>
-      </c>
-      <c r="O14">
-        <v>23.564155446426888</v>
-      </c>
-      <c r="P14">
-        <v>17.579844396611904</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>325</v>
-      </c>
-      <c r="R14" t="s">
-        <v>326</v>
-      </c>
-      <c r="S14" t="s">
-        <v>327</v>
-      </c>
-      <c r="T14">
-        <v>58.673403654464536</v>
-      </c>
-      <c r="U14">
-        <v>43.609066246670807</v>
-      </c>
-      <c r="V14">
-        <v>37.787315135084434</v>
-      </c>
-      <c r="W14" t="s">
-        <v>333</v>
-      </c>
-      <c r="X14" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y14" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z14">
+      <c r="Z14" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA14" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB14">
         <v>62.17677776134456</v>
       </c>
-      <c r="AA14">
+      <c r="AC14">
         <v>49.458914473438234</v>
       </c>
-      <c r="AB14">
+      <c r="AD14">
         <v>41.586243044962444</v>
       </c>
-      <c r="AC14" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD14" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE14" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF14" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4700,73 +6846,79 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>27.046473641251268</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>10.150789461244006</v>
-      </c>
-      <c r="K15" t="s">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N15" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O15" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="P15">
+        <v>48.145045563435133</v>
+      </c>
+      <c r="Q15">
+        <v>44.326979119883156</v>
+      </c>
+      <c r="R15">
+        <v>9.5423705944376156</v>
+      </c>
+      <c r="S15" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L15" t="s">
+      <c r="T15" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M15" t="s">
-        <v>321</v>
-      </c>
-      <c r="N15">
-        <v>48.145045563435133</v>
-      </c>
-      <c r="O15">
-        <v>44.326979119883156</v>
-      </c>
-      <c r="P15">
-        <v>9.5423705944376156</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>325</v>
-      </c>
-      <c r="R15" t="s">
-        <v>326</v>
-      </c>
-      <c r="S15" t="s">
+      <c r="U15" s="25" t="s">
         <v>332</v>
       </c>
-      <c r="T15">
+      <c r="V15">
         <v>53.732451715241972</v>
       </c>
-      <c r="U15">
+      <c r="W15">
         <v>43.18326782640429</v>
       </c>
-      <c r="V15">
+      <c r="X15">
         <v>33.487263581320839</v>
       </c>
-      <c r="W15" t="s">
-        <v>333</v>
-      </c>
-      <c r="X15" t="s">
+      <c r="Y15" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z15" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AA15" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="Y15" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z15">
+      <c r="AB15">
         <v>90.722835725842614</v>
       </c>
-      <c r="AA15">
+      <c r="AC15">
         <v>72.262631357090797</v>
       </c>
-      <c r="AB15">
+      <c r="AD15">
         <v>16.426433423634801</v>
       </c>
-      <c r="AC15" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD15" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE15" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF15" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>27.400752097736085</v>
       </c>
@@ -4795,70 +6947,76 @@
         <v>23.986199108322683</v>
       </c>
       <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
         <v>9.5070091840407525</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N16" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O16" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P16">
+        <v>65.14527423122135</v>
+      </c>
+      <c r="Q16">
+        <v>27.982652180624491</v>
+      </c>
+      <c r="R16">
+        <v>16.027039155114124</v>
+      </c>
+      <c r="S16" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L16" t="s">
+      <c r="T16" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M16" t="s">
-        <v>324</v>
-      </c>
-      <c r="N16">
-        <v>65.14527423122135</v>
-      </c>
-      <c r="O16">
-        <v>27.982652180624491</v>
-      </c>
-      <c r="P16">
-        <v>16.027039155114124</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>325</v>
-      </c>
-      <c r="R16" t="s">
-        <v>326</v>
-      </c>
-      <c r="S16" t="s">
-        <v>329</v>
-      </c>
-      <c r="T16">
+      <c r="U16" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V16">
         <v>58.999841375184005</v>
       </c>
-      <c r="U16">
+      <c r="W16">
         <v>45.328222999836612</v>
       </c>
-      <c r="V16">
+      <c r="X16">
         <v>33.167825876621279</v>
       </c>
-      <c r="W16" t="s">
-        <v>333</v>
-      </c>
-      <c r="X16" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y16" t="s">
+      <c r="Y16" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z16" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="Z16">
+      <c r="AA16" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB16">
         <v>71.058926160663304</v>
       </c>
-      <c r="AA16">
+      <c r="AC16">
         <v>60.153035541044133</v>
       </c>
-      <c r="AB16">
+      <c r="AD16">
         <v>53.706834777177235</v>
       </c>
-      <c r="AC16" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD16" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE16" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF16" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>21.404523864262138</v>
       </c>
@@ -4887,70 +7045,76 @@
         <v>26.062772398120632</v>
       </c>
       <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
         <v>8.9435689284904143</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N17" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O17" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P17">
+        <v>64.344162614162073</v>
+      </c>
+      <c r="Q17">
+        <v>29.352007308349808</v>
+      </c>
+      <c r="R17">
+        <v>14.424408789288037</v>
+      </c>
+      <c r="S17" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L17" t="s">
+      <c r="T17" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M17" t="s">
-        <v>321</v>
-      </c>
-      <c r="N17">
-        <v>64.344162614162073</v>
-      </c>
-      <c r="O17">
-        <v>29.352007308349808</v>
-      </c>
-      <c r="P17">
-        <v>14.424408789288037</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>325</v>
-      </c>
-      <c r="R17" t="s">
-        <v>326</v>
-      </c>
-      <c r="S17" t="s">
-        <v>329</v>
-      </c>
-      <c r="T17">
+      <c r="U17" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V17">
         <v>51.59120978730536</v>
       </c>
-      <c r="U17">
+      <c r="W17">
         <v>42.848140163587971</v>
       </c>
-      <c r="V17">
+      <c r="X17">
         <v>36.455695589390402</v>
       </c>
-      <c r="W17" t="s">
-        <v>333</v>
-      </c>
-      <c r="X17" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y17" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z17">
+      <c r="Y17" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z17" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA17" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB17">
         <v>68.152137972448784</v>
       </c>
-      <c r="AA17">
+      <c r="AC17">
         <v>51.335627864324231</v>
       </c>
-      <c r="AB17">
+      <c r="AD17">
         <v>44.688275893369109</v>
       </c>
-      <c r="AC17" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD17" s="36" t="s">
+      <c r="AE17" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF17" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>24.84016061273535</v>
       </c>
@@ -4979,70 +7143,76 @@
         <v>33.868801786050184</v>
       </c>
       <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
         <v>12.727643088187378</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N18" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O18" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P18">
+        <v>56.079515489390687</v>
+      </c>
+      <c r="Q18">
+        <v>20.499888542061985</v>
+      </c>
+      <c r="R18">
+        <v>19.683878926602322</v>
+      </c>
+      <c r="S18" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L18" t="s">
+      <c r="T18" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M18" t="s">
+      <c r="U18" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="V18">
+        <v>58.452063498692439</v>
+      </c>
+      <c r="W18">
+        <v>42.424959502671832</v>
+      </c>
+      <c r="X18">
+        <v>40.437992470134787</v>
+      </c>
+      <c r="Y18" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N18">
-        <v>56.079515489390687</v>
-      </c>
-      <c r="O18">
-        <v>20.499888542061985</v>
-      </c>
-      <c r="P18">
-        <v>19.683878926602322</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>325</v>
-      </c>
-      <c r="R18" t="s">
-        <v>326</v>
-      </c>
-      <c r="S18" t="s">
-        <v>327</v>
-      </c>
-      <c r="T18">
-        <v>58.452063498692439</v>
-      </c>
-      <c r="U18">
-        <v>42.424959502671832</v>
-      </c>
-      <c r="V18">
-        <v>40.437992470134787</v>
-      </c>
-      <c r="W18" t="s">
-        <v>333</v>
-      </c>
-      <c r="X18" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y18" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z18">
+      <c r="Z18" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA18" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB18">
         <v>57.79595187120804</v>
       </c>
-      <c r="AA18">
+      <c r="AC18">
         <v>50.1313611831497</v>
       </c>
-      <c r="AB18">
+      <c r="AD18">
         <v>36.968910745312812</v>
       </c>
-      <c r="AC18" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD18" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE18" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF18" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>30.713679386849478</v>
       </c>
@@ -5071,70 +7241,76 @@
         <v>35.734364726129058</v>
       </c>
       <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
         <v>14.309239723895763</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N19" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O19" s="25" t="s">
+        <v>331</v>
+      </c>
+      <c r="P19">
+        <v>63.147673211989463</v>
+      </c>
+      <c r="Q19">
+        <v>26.018987793586923</v>
+      </c>
+      <c r="R19">
+        <v>19.3724198883389</v>
+      </c>
+      <c r="S19" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L19" t="s">
+      <c r="T19" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M19" t="s">
+      <c r="U19" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="N19">
-        <v>63.147673211989463</v>
-      </c>
-      <c r="O19">
-        <v>26.018987793586923</v>
-      </c>
-      <c r="P19">
-        <v>19.3724198883389</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>325</v>
-      </c>
-      <c r="R19" t="s">
-        <v>326</v>
-      </c>
-      <c r="S19" t="s">
-        <v>327</v>
-      </c>
-      <c r="T19">
+      <c r="V19">
         <v>69.717651717816636</v>
       </c>
-      <c r="U19">
+      <c r="W19">
         <v>49.468155729945131</v>
       </c>
-      <c r="V19">
+      <c r="X19">
         <v>41.417016098139257</v>
       </c>
-      <c r="W19" t="s">
-        <v>325</v>
-      </c>
-      <c r="X19" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y19" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z19">
+      <c r="Y19" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z19" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA19" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB19">
         <v>61.117557447704876</v>
       </c>
-      <c r="AA19">
+      <c r="AC19">
         <v>53.720407889384362</v>
       </c>
-      <c r="AB19">
+      <c r="AD19">
         <v>43.975636844487795</v>
       </c>
-      <c r="AC19" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="AD19" s="36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE19" s="25" t="s">
+        <v>305</v>
+      </c>
+      <c r="AF19" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>41.467163971024931</v>
       </c>
@@ -5163,70 +7339,76 @@
         <v>23.609447293193799</v>
       </c>
       <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
         <v>10.799432364014288</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N20" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O20" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20">
+        <v>65.635433801892106</v>
+      </c>
+      <c r="Q20">
+        <v>33.498514733405095</v>
+      </c>
+      <c r="R20">
+        <v>30.261661449794815</v>
+      </c>
+      <c r="S20" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L20" t="s">
+      <c r="T20" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M20" t="s">
+      <c r="U20" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="V20">
+        <v>68.826994029392424</v>
+      </c>
+      <c r="W20">
+        <v>40.859885964533738</v>
+      </c>
+      <c r="X20">
+        <v>34.983077598278165</v>
+      </c>
+      <c r="Y20" s="25" t="s">
         <v>324</v>
       </c>
-      <c r="N20">
-        <v>65.635433801892106</v>
-      </c>
-      <c r="O20">
-        <v>33.498514733405095</v>
-      </c>
-      <c r="P20">
-        <v>30.261661449794815</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>325</v>
-      </c>
-      <c r="R20" t="s">
-        <v>326</v>
-      </c>
-      <c r="S20" t="s">
-        <v>328</v>
-      </c>
-      <c r="T20">
-        <v>68.826994029392424</v>
-      </c>
-      <c r="U20">
-        <v>40.859885964533738</v>
-      </c>
-      <c r="V20">
-        <v>34.983077598278165</v>
-      </c>
-      <c r="W20" t="s">
-        <v>325</v>
-      </c>
-      <c r="X20" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y20" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z20">
+      <c r="Z20" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA20" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB20">
         <v>64.810059543163973</v>
       </c>
-      <c r="AA20">
+      <c r="AC20">
         <v>51.564307368081174</v>
       </c>
-      <c r="AB20">
+      <c r="AD20">
         <v>49.349148322205465</v>
       </c>
-      <c r="AC20" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD20" s="36" t="s">
+      <c r="AE20" s="25" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="21" spans="1:30" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF20" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5252,67 +7434,74 @@
         <v>1</v>
       </c>
       <c r="I21">
-        <v>12.057079455983796</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>6.7397975216498365</v>
-      </c>
-      <c r="K21" t="s">
+        <v>1</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N21" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O21" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P21">
+        <v>68.203222436537175</v>
+      </c>
+      <c r="Q21">
+        <v>67.090904933912967</v>
+      </c>
+      <c r="R21">
+        <v>22.063963136514744</v>
+      </c>
+      <c r="S21" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L21" t="s">
-        <v>320</v>
-      </c>
-      <c r="M21" t="s">
+      <c r="T21" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="U21" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="N21">
-        <v>68.203222436537175</v>
-      </c>
-      <c r="O21">
-        <v>67.090904933912967</v>
-      </c>
-      <c r="P21">
-        <v>22.063963136514744</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>325</v>
-      </c>
-      <c r="R21" t="s">
-        <v>328</v>
-      </c>
-      <c r="S21" t="s">
+      <c r="V21">
+        <v>100</v>
+      </c>
+      <c r="W21">
+        <v>49.542742984186013</v>
+      </c>
+      <c r="X21">
+        <v>47.977558178824182</v>
+      </c>
+      <c r="Y21" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="T21">
+      <c r="Z21" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA21" s="25"/>
+      <c r="AB21">
         <v>100</v>
       </c>
-      <c r="U21">
-        <v>49.542742984186013</v>
-      </c>
-      <c r="V21">
-        <v>47.977558178824182</v>
-      </c>
-      <c r="W21" t="s">
-        <v>326</v>
-      </c>
-      <c r="X21" t="s">
-        <v>325</v>
-      </c>
-      <c r="Z21">
+      <c r="AC21">
         <v>100</v>
       </c>
-      <c r="AA21">
-        <v>100</v>
-      </c>
-      <c r="AC21" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD21" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE21" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF21" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>46.700610600755219</v>
       </c>
@@ -5341,70 +7530,76 @@
         <v>23.367530622460531</v>
       </c>
       <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
         <v>11.320835988912135</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N22" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O22" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P22">
+        <v>76.75882711661157</v>
+      </c>
+      <c r="Q22">
+        <v>40.04594740368065</v>
+      </c>
+      <c r="R22">
+        <v>24.930628074834523</v>
+      </c>
+      <c r="S22" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L22" t="s">
+      <c r="T22" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M22" t="s">
-        <v>321</v>
-      </c>
-      <c r="N22">
-        <v>76.75882711661157</v>
-      </c>
-      <c r="O22">
-        <v>40.04594740368065</v>
-      </c>
-      <c r="P22">
-        <v>24.930628074834523</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>325</v>
-      </c>
-      <c r="R22" t="s">
+      <c r="U22" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="S22" t="s">
-        <v>328</v>
-      </c>
-      <c r="T22">
+      <c r="V22">
         <v>67.104194295765026</v>
       </c>
-      <c r="U22">
+      <c r="W22">
         <v>46.569756078938269</v>
       </c>
-      <c r="V22">
+      <c r="X22">
         <v>37.114847579828599</v>
       </c>
-      <c r="W22" t="s">
-        <v>328</v>
-      </c>
-      <c r="X22" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y22" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z22">
+      <c r="Y22" s="25" t="s">
+        <v>333</v>
+      </c>
+      <c r="Z22" s="25" t="s">
+        <v>334</v>
+      </c>
+      <c r="AA22" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB22">
         <v>55.000116624210236</v>
       </c>
-      <c r="AA22">
+      <c r="AC22">
         <v>49.103142324434785</v>
       </c>
-      <c r="AB22">
+      <c r="AD22">
         <v>45.734212736710354</v>
       </c>
-      <c r="AC22" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD22" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE22" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF22" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5433,70 +7628,76 @@
         <v>21.689165889223876</v>
       </c>
       <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
         <v>10.776581895286547</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N23" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O23" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P23">
+        <v>84.541147663475527</v>
+      </c>
+      <c r="Q23">
+        <v>34.966271215616352</v>
+      </c>
+      <c r="R23">
+        <v>11.373926882443602</v>
+      </c>
+      <c r="S23" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L23" t="s">
+      <c r="T23" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M23" t="s">
-        <v>321</v>
-      </c>
-      <c r="N23">
-        <v>84.541147663475527</v>
-      </c>
-      <c r="O23">
-        <v>34.966271215616352</v>
-      </c>
-      <c r="P23">
-        <v>11.373926882443602</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>325</v>
-      </c>
-      <c r="R23" t="s">
+      <c r="U23" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="S23" t="s">
-        <v>328</v>
-      </c>
-      <c r="T23">
+      <c r="V23">
         <v>68.222412798140482</v>
       </c>
-      <c r="U23">
+      <c r="W23">
         <v>37.02348757336766</v>
       </c>
-      <c r="V23">
+      <c r="X23">
         <v>31.42089304509549</v>
       </c>
-      <c r="W23" t="s">
-        <v>326</v>
-      </c>
-      <c r="X23" t="s">
-        <v>325</v>
-      </c>
-      <c r="Y23" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z23">
+      <c r="Y23" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="Z23" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="AA23" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB23">
         <v>66.078057568958144</v>
       </c>
-      <c r="AA23">
+      <c r="AC23">
         <v>33.921942431041856</v>
       </c>
-      <c r="AB23">
+      <c r="AD23">
         <v>32.156115137916288</v>
       </c>
-      <c r="AC23" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD23" s="36" t="s">
+      <c r="AE23" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF23" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>40.322252021218439</v>
       </c>
@@ -5525,70 +7726,76 @@
         <v>23.792635850782098</v>
       </c>
       <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
         <v>10.823354985012211</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N24" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O24" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P24">
+        <v>60.006539086953758</v>
+      </c>
+      <c r="Q24">
+        <v>33.837735055744709</v>
+      </c>
+      <c r="R24">
+        <v>33.749922145933994</v>
+      </c>
+      <c r="S24" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L24" t="s">
+      <c r="T24" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="U24" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M24" t="s">
+      <c r="V24">
+        <v>66.571763792102487</v>
+      </c>
+      <c r="W24">
+        <v>38.491554132521365</v>
+      </c>
+      <c r="X24">
+        <v>37.563169745653532</v>
+      </c>
+      <c r="Y24" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z24" s="25" t="s">
         <v>322</v>
       </c>
-      <c r="N24">
-        <v>60.006539086953758</v>
-      </c>
-      <c r="O24">
-        <v>33.837735055744709</v>
-      </c>
-      <c r="P24">
-        <v>33.749922145933994</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>325</v>
-      </c>
-      <c r="R24" t="s">
-        <v>329</v>
-      </c>
-      <c r="S24" t="s">
-        <v>326</v>
-      </c>
-      <c r="T24">
-        <v>66.571763792102487</v>
-      </c>
-      <c r="U24">
-        <v>38.491554132521365</v>
-      </c>
-      <c r="V24">
-        <v>37.563169745653532</v>
-      </c>
-      <c r="W24" t="s">
-        <v>325</v>
-      </c>
-      <c r="X24" t="s">
-        <v>333</v>
-      </c>
-      <c r="Y24" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z24">
+      <c r="AA24" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB24">
         <v>65.096521756671038</v>
       </c>
-      <c r="AA24">
+      <c r="AC24">
         <v>59.644929195489901</v>
       </c>
-      <c r="AB24">
+      <c r="AD24">
         <v>50.943641001859774</v>
       </c>
-      <c r="AC24" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD24" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE24" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF24" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>39.00262875697225</v>
       </c>
@@ -5617,70 +7824,76 @@
         <v>24.32635567420833</v>
       </c>
       <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
         <v>10.252454522818562</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N25" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O25" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P25">
+        <v>69.146291847948305</v>
+      </c>
+      <c r="Q25">
+        <v>29.356681395875828</v>
+      </c>
+      <c r="R25">
+        <v>24.524576872589055</v>
+      </c>
+      <c r="S25" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L25" t="s">
+      <c r="T25" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M25" t="s">
+      <c r="U25" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="N25">
-        <v>69.146291847948305</v>
-      </c>
-      <c r="O25">
-        <v>29.356681395875828</v>
-      </c>
-      <c r="P25">
-        <v>24.524576872589055</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>325</v>
-      </c>
-      <c r="R25" t="s">
-        <v>326</v>
-      </c>
-      <c r="S25" t="s">
+      <c r="V25">
+        <v>77.935879164661088</v>
+      </c>
+      <c r="W25">
+        <v>48.556277585189022</v>
+      </c>
+      <c r="X25">
+        <v>30.142373704351982</v>
+      </c>
+      <c r="Y25" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z25" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="T25">
-        <v>77.935879164661088</v>
-      </c>
-      <c r="U25">
-        <v>48.556277585189022</v>
-      </c>
-      <c r="V25">
-        <v>30.142373704351982</v>
-      </c>
-      <c r="W25" t="s">
-        <v>325</v>
-      </c>
-      <c r="X25" t="s">
-        <v>326</v>
-      </c>
-      <c r="Y25" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z25">
+      <c r="AA25" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB25">
         <v>91.132365333319697</v>
       </c>
-      <c r="AA25">
+      <c r="AC25">
         <v>62.303704814830738</v>
       </c>
-      <c r="AB25">
+      <c r="AD25">
         <v>40.330522811521803</v>
       </c>
-      <c r="AC25" s="36" t="s">
-        <v>311</v>
-      </c>
-      <c r="AD25" s="36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE25" s="25" t="s">
+        <v>306</v>
+      </c>
+      <c r="AF25" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>54.313410822870281</v>
       </c>
@@ -5709,70 +7922,76 @@
         <v>20.817291588646555</v>
       </c>
       <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
         <v>11.55812321103245</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N26" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O26" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P26">
+        <v>72.247365437141781</v>
+      </c>
+      <c r="Q26">
+        <v>46.317774310750828</v>
+      </c>
+      <c r="R26">
+        <v>38.674910490794481</v>
+      </c>
+      <c r="S26" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L26" t="s">
+      <c r="T26" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="U26" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="M26" t="s">
-        <v>320</v>
-      </c>
-      <c r="N26">
-        <v>72.247365437141781</v>
-      </c>
-      <c r="O26">
-        <v>46.317774310750828</v>
-      </c>
-      <c r="P26">
-        <v>38.674910490794481</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>325</v>
-      </c>
-      <c r="R26" t="s">
-        <v>326</v>
-      </c>
-      <c r="S26" t="s">
-        <v>327</v>
-      </c>
-      <c r="T26">
+      <c r="V26">
         <v>77.189524306615255</v>
       </c>
-      <c r="U26">
+      <c r="W26">
         <v>37.870114513884687</v>
       </c>
-      <c r="V26">
+      <c r="X26">
         <v>27.584280002632511</v>
       </c>
-      <c r="W26" t="s">
-        <v>333</v>
-      </c>
-      <c r="X26" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y26" t="s">
-        <v>327</v>
-      </c>
-      <c r="Z26">
+      <c r="Y26" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z26" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA26" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="AB26">
         <v>53.135291936587706</v>
       </c>
-      <c r="AA26">
+      <c r="AC26">
         <v>52.563834108344473</v>
       </c>
-      <c r="AB26">
+      <c r="AD26">
         <v>49.28089776150938</v>
       </c>
-      <c r="AC26" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD26" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE26" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF26" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>0</v>
       </c>
@@ -5801,52 +8020,61 @@
         <v>20.098553020397464</v>
       </c>
       <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
         <v>10.635972367998587</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N27" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O27" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P27">
+        <v>78.091492325889149</v>
+      </c>
+      <c r="Q27">
+        <v>53.900363096442369</v>
+      </c>
+      <c r="R27">
+        <v>33.733667600001063</v>
+      </c>
+      <c r="S27" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L27" t="s">
-        <v>321</v>
-      </c>
-      <c r="M27" t="s">
-        <v>320</v>
-      </c>
-      <c r="N27">
-        <v>78.091492325889149</v>
-      </c>
-      <c r="O27">
-        <v>53.900363096442369</v>
-      </c>
-      <c r="P27">
+      <c r="T27" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="U27" s="25" t="s">
+        <v>336</v>
+      </c>
+      <c r="V27">
+        <v>88.174840074109795</v>
+      </c>
+      <c r="W27">
         <v>33.733667600001063</v>
       </c>
-      <c r="Q27" t="s">
-        <v>325</v>
-      </c>
-      <c r="R27" t="s">
-        <v>329</v>
-      </c>
-      <c r="S27" t="s">
-        <v>330</v>
-      </c>
-      <c r="T27">
-        <v>88.174840074109795</v>
-      </c>
-      <c r="U27">
+      <c r="X27">
         <v>33.733667600001063</v>
       </c>
-      <c r="V27">
-        <v>33.733667600001063</v>
-      </c>
-      <c r="AC27" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD27" s="36" t="s">
+      <c r="Y27" s="25"/>
+      <c r="Z27" s="25"/>
+      <c r="AA27" s="25"/>
+      <c r="AE27" s="25" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="28" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF27" s="25" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>66.357894554316161</v>
       </c>
@@ -5875,70 +8103,76 @@
         <v>18.861086188547322</v>
       </c>
       <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
         <v>12.647441746483675</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N28" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O28" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P28">
+        <v>80.287345080305741</v>
+      </c>
+      <c r="Q28">
+        <v>50.213398269962148</v>
+      </c>
+      <c r="R28">
+        <v>45.997220153037809</v>
+      </c>
+      <c r="S28" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L28" t="s">
-        <v>321</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="T28" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="N28">
-        <v>80.287345080305741</v>
-      </c>
-      <c r="O28">
-        <v>50.213398269962148</v>
-      </c>
-      <c r="P28">
-        <v>45.997220153037809</v>
-      </c>
-      <c r="Q28" t="s">
-        <v>325</v>
-      </c>
-      <c r="R28" t="s">
-        <v>326</v>
-      </c>
-      <c r="S28" t="s">
-        <v>329</v>
-      </c>
-      <c r="T28">
+      <c r="U28" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V28">
         <v>80.05990459745766</v>
       </c>
-      <c r="U28">
+      <c r="W28">
         <v>43.077974605572237</v>
       </c>
-      <c r="V28">
+      <c r="X28">
         <v>28.985863431092422</v>
       </c>
-      <c r="W28" t="s">
-        <v>325</v>
-      </c>
-      <c r="X28" t="s">
+      <c r="Y28" s="25" t="s">
+        <v>324</v>
+      </c>
+      <c r="Z28" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AA28" s="25" t="s">
         <v>333</v>
       </c>
-      <c r="Y28" t="s">
-        <v>328</v>
-      </c>
-      <c r="Z28">
+      <c r="AB28">
         <v>38.635623526249788</v>
       </c>
-      <c r="AA28">
+      <c r="AC28">
         <v>22.728752947500421</v>
       </c>
-      <c r="AB28">
+      <c r="AD28">
         <v>22.728752947500421</v>
       </c>
-      <c r="AC28" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD28" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE28" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF28" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>0</v>
       </c>
@@ -5967,52 +8201,61 @@
         <v>22.490424930434123</v>
       </c>
       <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
         <v>13.432719345458295</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N29" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="O29" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="P29">
+        <v>81.988579389506953</v>
+      </c>
+      <c r="Q29">
+        <v>57.270010789668824</v>
+      </c>
+      <c r="R29">
+        <v>43.495836007049363</v>
+      </c>
+      <c r="S29" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L29" t="s">
-        <v>321</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="T29" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="U29" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="N29">
-        <v>81.988579389506953</v>
-      </c>
-      <c r="O29">
-        <v>57.270010789668824</v>
-      </c>
-      <c r="P29">
-        <v>43.495836007049363</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>325</v>
-      </c>
-      <c r="R29" t="s">
-        <v>328</v>
-      </c>
-      <c r="S29" t="s">
-        <v>326</v>
-      </c>
-      <c r="T29">
+      <c r="V29">
         <v>79.142149288474201</v>
       </c>
-      <c r="U29">
+      <c r="W29">
         <v>33.187102618966129</v>
       </c>
-      <c r="V29">
+      <c r="X29">
         <v>32.009119765722922</v>
       </c>
-      <c r="AC29" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD29" s="36" t="s">
+      <c r="Y29" s="25"/>
+      <c r="Z29" s="25"/>
+      <c r="AA29" s="25"/>
+      <c r="AE29" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF29" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>52.079523928621683</v>
       </c>
@@ -6041,70 +8284,76 @@
         <v>19.94582486441162</v>
       </c>
       <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
         <v>10.615980198954095</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N30" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O30" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P30">
+        <v>65.686038457124582</v>
+      </c>
+      <c r="Q30">
+        <v>45.236980785303494</v>
+      </c>
+      <c r="R30">
+        <v>35.448458696299028</v>
+      </c>
+      <c r="S30" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L30" t="s">
+      <c r="T30" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="M30" t="s">
+      <c r="U30" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="N30">
-        <v>65.686038457124582</v>
-      </c>
-      <c r="O30">
-        <v>45.236980785303494</v>
-      </c>
-      <c r="P30">
-        <v>35.448458696299028</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>325</v>
-      </c>
-      <c r="R30" t="s">
-        <v>326</v>
-      </c>
-      <c r="S30" t="s">
-        <v>327</v>
-      </c>
-      <c r="T30">
+      <c r="V30">
         <v>73.428681905598609</v>
       </c>
-      <c r="U30">
+      <c r="W30">
         <v>31.97635774575599</v>
       </c>
-      <c r="V30">
+      <c r="X30">
         <v>28.160257081506785</v>
       </c>
-      <c r="W30" t="s">
-        <v>327</v>
-      </c>
-      <c r="X30" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>333</v>
-      </c>
-      <c r="Z30">
+      <c r="Y30" s="25" t="s">
+        <v>323</v>
+      </c>
+      <c r="Z30" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA30" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="AB30">
         <v>69.940933059898043</v>
       </c>
-      <c r="AA30">
+      <c r="AC30">
         <v>69.286211118585399</v>
       </c>
-      <c r="AB30">
+      <c r="AD30">
         <v>62.314236569384818</v>
       </c>
-      <c r="AC30" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD30" s="36" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE30" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF30" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>46.155986343191721</v>
       </c>
@@ -6133,70 +8382,76 @@
         <v>25.855813528947724</v>
       </c>
       <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
         <v>12.427615518906109</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N31" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O31" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P31">
+        <v>78.374393987563892</v>
+      </c>
+      <c r="Q31">
+        <v>45.284080871785385</v>
+      </c>
+      <c r="R31">
+        <v>34.381144832892986</v>
+      </c>
+      <c r="S31" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L31" t="s">
+      <c r="T31" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="U31" s="25" t="s">
         <v>321</v>
       </c>
-      <c r="M31" t="s">
-        <v>320</v>
-      </c>
-      <c r="N31">
-        <v>78.374393987563892</v>
-      </c>
-      <c r="O31">
-        <v>45.284080871785385</v>
-      </c>
-      <c r="P31">
-        <v>34.381144832892986</v>
-      </c>
-      <c r="Q31" t="s">
-        <v>325</v>
-      </c>
-      <c r="R31" t="s">
-        <v>326</v>
-      </c>
-      <c r="S31" t="s">
+      <c r="V31">
+        <v>83.400027179676613</v>
+      </c>
+      <c r="W31">
+        <v>49.407113063848826</v>
+      </c>
+      <c r="X31">
+        <v>33.171187328793557</v>
+      </c>
+      <c r="Y31" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="Z31" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="AA31" s="25" t="s">
         <v>327</v>
       </c>
-      <c r="T31">
-        <v>83.400027179676613</v>
-      </c>
-      <c r="U31">
-        <v>49.407113063848826</v>
-      </c>
-      <c r="V31">
-        <v>33.171187328793557</v>
-      </c>
-      <c r="W31" t="s">
-        <v>333</v>
-      </c>
-      <c r="X31" t="s">
-        <v>334</v>
-      </c>
-      <c r="Y31" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z31">
+      <c r="AB31">
         <v>53.771651586385872</v>
       </c>
-      <c r="AA31">
+      <c r="AC31">
         <v>46.228348413614128</v>
       </c>
-      <c r="AB31">
+      <c r="AD31">
         <v>46.228348413614128</v>
       </c>
-      <c r="AC31" s="36" t="s">
-        <v>312</v>
-      </c>
-      <c r="AD31" s="36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE31" s="25" t="s">
+        <v>307</v>
+      </c>
+      <c r="AF31" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>60.982848859673197</v>
       </c>
@@ -6225,64 +8480,71 @@
         <v>21.814042203713711</v>
       </c>
       <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
         <v>13.417174548090225</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N32" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O32" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P32">
+        <v>76.65411807590425</v>
+      </c>
+      <c r="Q32">
+        <v>56.417067167051748</v>
+      </c>
+      <c r="R32">
+        <v>31.238020183554166</v>
+      </c>
+      <c r="S32" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L32" t="s">
-        <v>321</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="T32" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="N32">
-        <v>76.65411807590425</v>
-      </c>
-      <c r="O32">
-        <v>56.417067167051748</v>
-      </c>
-      <c r="P32">
-        <v>31.238020183554166</v>
-      </c>
-      <c r="Q32" t="s">
-        <v>325</v>
-      </c>
-      <c r="R32" t="s">
+      <c r="U32" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="S32" t="s">
-        <v>328</v>
-      </c>
-      <c r="T32">
+      <c r="V32">
         <v>77.021269119390098</v>
       </c>
-      <c r="U32">
+      <c r="W32">
         <v>35.782755676630735</v>
       </c>
-      <c r="V32">
+      <c r="X32">
         <v>22.811659712072725</v>
       </c>
-      <c r="W32" t="s">
-        <v>334</v>
-      </c>
-      <c r="X32" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z32">
+      <c r="Y32" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z32" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA32" s="25"/>
+      <c r="AB32">
         <v>26.49433277493517</v>
       </c>
-      <c r="AA32">
+      <c r="AC32">
         <v>26.49433277493517</v>
       </c>
-      <c r="AC32" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD32" s="36" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="33" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AE32" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF32" s="25" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>70.885892583961336</v>
       </c>
@@ -6311,52 +8573,61 @@
         <v>18.073785878759765</v>
       </c>
       <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
         <v>12.834491174313417</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N33" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O33" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P33">
+        <v>83.06993263646666</v>
+      </c>
+      <c r="Q33">
+        <v>57.534726199659772</v>
+      </c>
+      <c r="R33">
+        <v>45.920285303988578</v>
+      </c>
+      <c r="S33" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L33" t="s">
-        <v>321</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="T33" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="N33">
-        <v>83.06993263646666</v>
-      </c>
-      <c r="O33">
-        <v>57.534726199659772</v>
-      </c>
-      <c r="P33">
-        <v>45.920285303988578</v>
-      </c>
-      <c r="Q33" t="s">
-        <v>325</v>
-      </c>
-      <c r="R33" t="s">
+      <c r="U33" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="S33" t="s">
-        <v>328</v>
-      </c>
-      <c r="T33">
+      <c r="V33">
         <v>73.659551397529782</v>
       </c>
-      <c r="U33">
+      <c r="W33">
         <v>26.671738941201976</v>
       </c>
-      <c r="V33">
+      <c r="X33">
         <v>19.12291062892275</v>
       </c>
-      <c r="AC33" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD33" s="36" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="34" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y33" s="25"/>
+      <c r="Z33" s="25"/>
+      <c r="AA33" s="25"/>
+      <c r="AE33" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF33" s="25" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>0</v>
       </c>
@@ -6385,52 +8656,61 @@
         <v>19.599614977999614</v>
       </c>
       <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
         <v>12.632883996976268</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N34" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O34" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="P34">
+        <v>81.650293010360343</v>
+      </c>
+      <c r="Q34">
+        <v>48.192321403012706</v>
+      </c>
+      <c r="R34">
+        <v>46.105552447182362</v>
+      </c>
+      <c r="S34" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L34" t="s">
-        <v>321</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="T34" s="25" t="s">
+        <v>326</v>
+      </c>
+      <c r="U34" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="N34">
-        <v>81.650293010360343</v>
-      </c>
-      <c r="O34">
-        <v>48.192321403012706</v>
-      </c>
-      <c r="P34">
-        <v>46.105552447182362</v>
-      </c>
-      <c r="Q34" t="s">
-        <v>325</v>
-      </c>
-      <c r="R34" t="s">
-        <v>328</v>
-      </c>
-      <c r="S34" t="s">
-        <v>326</v>
-      </c>
-      <c r="T34">
+      <c r="V34">
         <v>66.051264129387562</v>
       </c>
-      <c r="U34">
+      <c r="W34">
         <v>26.761804428231063</v>
       </c>
-      <c r="V34">
+      <c r="X34">
         <v>24.782210696202313</v>
       </c>
-      <c r="AC34" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD34" s="36" t="s">
+      <c r="Y34" s="25"/>
+      <c r="Z34" s="25"/>
+      <c r="AA34" s="25"/>
+      <c r="AE34" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF34" s="25" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>59.487021280381192</v>
       </c>
@@ -6459,64 +8739,71 @@
         <v>22.998348382638405</v>
       </c>
       <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
         <v>13.778388485586502</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N35" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O35" s="25" t="s">
+        <v>330</v>
+      </c>
+      <c r="P35">
+        <v>70.596180425651383</v>
+      </c>
+      <c r="Q35">
+        <v>54.938787547778809</v>
+      </c>
+      <c r="R35">
+        <v>34.01871163051328</v>
+      </c>
+      <c r="S35" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L35" t="s">
-        <v>321</v>
-      </c>
-      <c r="M35" t="s">
+      <c r="T35" s="25" t="s">
         <v>320</v>
       </c>
-      <c r="N35">
-        <v>70.596180425651383</v>
-      </c>
-      <c r="O35">
-        <v>54.938787547778809</v>
-      </c>
-      <c r="P35">
-        <v>34.01871163051328</v>
-      </c>
-      <c r="Q35" t="s">
-        <v>325</v>
-      </c>
-      <c r="R35" t="s">
-        <v>326</v>
-      </c>
-      <c r="S35" t="s">
-        <v>329</v>
-      </c>
-      <c r="T35">
+      <c r="U35" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="V35">
         <v>73.987610514854509</v>
       </c>
-      <c r="U35">
+      <c r="W35">
         <v>29.220969115474222</v>
       </c>
-      <c r="V35">
+      <c r="X35">
         <v>21.741653318021605</v>
       </c>
-      <c r="W35" t="s">
-        <v>334</v>
-      </c>
-      <c r="X35" t="s">
-        <v>326</v>
-      </c>
-      <c r="Z35">
+      <c r="Y35" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="Z35" s="25" t="s">
+        <v>327</v>
+      </c>
+      <c r="AA35" s="25"/>
+      <c r="AB35">
         <v>26.49433277493517</v>
       </c>
-      <c r="AA35">
+      <c r="AC35">
         <v>26.49433277493517</v>
       </c>
-      <c r="AC35" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD35" s="36" t="s">
+      <c r="AE35" s="25" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="36" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="AF35" s="25" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>48.865228302642521</v>
       </c>
@@ -6545,52 +8832,61 @@
         <v>25.240847908719243</v>
       </c>
       <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36">
         <v>12.69186134756313</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N36" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="O36" s="25" t="s">
+        <v>325</v>
+      </c>
+      <c r="P36">
+        <v>86.019250169232848</v>
+      </c>
+      <c r="Q36">
+        <v>60.914479541210568</v>
+      </c>
+      <c r="R36">
+        <v>30.879455558126946</v>
+      </c>
+      <c r="S36" s="25" t="s">
         <v>319</v>
       </c>
-      <c r="L36" t="s">
-        <v>321</v>
-      </c>
-      <c r="M36" t="s">
-        <v>323</v>
-      </c>
-      <c r="N36">
-        <v>86.019250169232848</v>
-      </c>
-      <c r="O36">
-        <v>60.914479541210568</v>
-      </c>
-      <c r="P36">
-        <v>30.879455558126946</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>325</v>
-      </c>
-      <c r="R36" t="s">
+      <c r="T36" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="U36" s="25" t="s">
         <v>326</v>
       </c>
-      <c r="S36" t="s">
-        <v>328</v>
-      </c>
-      <c r="T36">
+      <c r="V36">
         <v>90.744821800850332</v>
       </c>
-      <c r="U36">
+      <c r="W36">
         <v>64.896903167747197</v>
       </c>
-      <c r="V36">
+      <c r="X36">
         <v>40.904063439663773</v>
       </c>
-      <c r="AC36" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD36" s="36" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="37" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="Y36" s="25"/>
+      <c r="Z36" s="25"/>
+      <c r="AA36" s="25"/>
+      <c r="AE36" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF36" s="25" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>0</v>
       </c>
@@ -6619,69 +8915,64 @@
         <v>0</v>
       </c>
       <c r="J37">
-        <v>0</v>
-      </c>
-      <c r="K37" t="s">
-        <v>319</v>
-      </c>
-      <c r="L37" t="s">
-        <v>321</v>
-      </c>
-      <c r="M37" t="s">
-        <v>322</v>
-      </c>
-      <c r="N37">
-        <v>76.65411807590425</v>
-      </c>
-      <c r="O37">
-        <v>56.417067167051748</v>
-      </c>
-      <c r="P37">
-        <v>31.238020183554166</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>314</v>
-      </c>
-      <c r="R37" t="s">
-        <v>314</v>
-      </c>
-      <c r="S37" t="s">
-        <v>314</v>
-      </c>
-      <c r="T37">
-        <v>77.021269119390098</v>
-      </c>
-      <c r="U37">
-        <v>35.782755676630735</v>
-      </c>
-      <c r="V37">
-        <v>22.811659712072725</v>
-      </c>
-      <c r="W37" t="s">
-        <v>314</v>
-      </c>
-      <c r="X37" t="s">
-        <v>314</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>314</v>
-      </c>
-      <c r="AC37" s="36" t="s">
-        <v>313</v>
-      </c>
-      <c r="AD37" s="36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:30" x14ac:dyDescent="0.25">
-      <c r="K38" t="s">
-        <v>314</v>
-      </c>
-      <c r="L38" t="s">
-        <v>314</v>
-      </c>
-      <c r="M38" t="s">
-        <v>314</v>
+        <v>1</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="N37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="O37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="P37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="R37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="S37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="T37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="U37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="V37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="W37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="X37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Y37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="Z37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="AA37" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="AE37" s="25" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF37" s="25" t="s">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
